--- a/Вектор развития ru-en 1.0 (56) Достижения.xlsx
+++ b/Вектор развития ru-en 1.0 (56) Достижения.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="615" windowWidth="20775" windowHeight="9600"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1221,9 +1221,6 @@
     <t>Vocalizes feeling discomfort by crying.</t>
   </si>
   <si>
-    <t>Makes sounds like "ah, eh, ooh" by the end of the first month.</t>
-  </si>
-  <si>
     <t>Babbles.</t>
   </si>
   <si>
@@ -1738,6 +1735,9 @@
   </si>
   <si>
     <t>Развитие и понимание речи</t>
+  </si>
+  <si>
+    <t>Makes sounds like "ah", "eh", "ooh" by the end of the first month.</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2145,9 @@
   </sheetPr>
   <dimension ref="A1:G453"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2180,7 +2182,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D2&amp;"__"&amp;B2&amp;"__"&amp;C2&amp;"""&gt;"</f>
@@ -2199,11 +2201,11 @@
         <v>232</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E8" si="0">"&lt;item&gt;"&amp;A3&amp;"&lt;/item&gt;"</f>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(A3, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Широко раскрывает глазки, просыпается, вздрагивает, услышав звук.&lt;/item&gt;</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;D3&amp;"&lt;/item&gt;"</f>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D3,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Opens their eyes wide, wakes up or flinches when hearing a sound.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2215,11 +2217,11 @@
         <v>233</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E8" si="0">"&lt;item&gt;"&amp;SUBSTITUTE(A4, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Ищет взглядом источник звука.&lt;/item&gt;</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f t="shared" ref="F4:F80" si="1">"&lt;item&gt;"&amp;D4&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="F4:F8" si="1">"&lt;item&gt;"&amp;SUBSTITUTE(D4,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Looks for the source of a sound.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2241,7 +2243,7 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2262,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2295,10 +2297,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2310,7 +2312,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D10&amp;"__"&amp;B10&amp;"__"&amp;C10&amp;"""&gt;"</f>
@@ -2329,65 +2331,65 @@
         <v>237</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A11&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E11:E14" si="2">"&lt;item&gt;"&amp;SUBSTITUTE(A11, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Смотрит в глаза мамы во время кормления.&lt;/item&gt;</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D11,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Looks the mother in the eyes when she feeds them.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A12&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;item&gt;Следит взглядом за движением предмета.&lt;/item&gt;</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F12:F14" si="3">"&lt;item&gt;"&amp;SUBSTITUTE(D12,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Follows an object’s movements with their eyes.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A13&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;item&gt;Имитирует мимику взрослого.&lt;/item&gt;</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;item&gt;Imitates an adult’s facial expressions.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A14&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;item&gt;Узнает голос мамы.&lt;/item&gt;</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;item&gt;Recognizes their mother’s voice.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2397,10 +2399,10 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2412,7 +2414,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D16&amp;"__"&amp;B16&amp;"__"&amp;C16&amp;"""&gt;"</f>
@@ -2433,17 +2435,17 @@
         <v>238</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A17&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E17:E20" si="4">"&lt;item&gt;"&amp;SUBSTITUTE(A17, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Узнает знакомых взрослых.&lt;/item&gt;</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D17,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Recognizes adults they already know.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2451,17 +2453,17 @@
         <v>239</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A18&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;item&gt;Голосом выражает свои эмоции.&lt;/item&gt;</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F18:F20" si="5">"&lt;item&gt;"&amp;SUBSTITUTE(D18,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Vocalizes their emotions.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2469,11 +2471,11 @@
         <v>240</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A19&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;item&gt;Смотрит на вложенную в руку игрушку.&lt;/item&gt;</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>&lt;item&gt;Looks at a toy put in their hands.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2487,11 +2489,11 @@
         <v>241</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A20&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;item&gt;Рассматривает свои пальчики и двигает ими.&lt;/item&gt;</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>&lt;item&gt;Looks at their fingers and moves them.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2501,10 +2503,10 @@
       <c r="C21" s="7"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2516,7 +2518,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E22" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D22&amp;"__"&amp;B22&amp;"__"&amp;C22&amp;"""&gt;"</f>
@@ -2529,7 +2531,7 @@
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2537,11 +2539,11 @@
         <v>242</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A23&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E23:E24" si="6">"&lt;item&gt;"&amp;SUBSTITUTE(A23, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Поворачивает голову в сторону источника звука (вправо, влево).&lt;/item&gt;</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D23,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Turns their head at the sound (left or right).&lt;/item&gt;</v>
       </c>
     </row>
@@ -2553,11 +2555,11 @@
         <v>243</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A24&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="6"/>
         <v>&lt;item&gt;Реагирует на свое имя, поворачивается.&lt;/item&gt;</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D24,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Reacts to their name, turns around.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2567,10 +2569,10 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2582,7 +2584,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E26" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D26&amp;"__"&amp;B26&amp;"__"&amp;C26&amp;"""&gt;"</f>
@@ -2601,11 +2603,11 @@
         <v>244</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A27&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E27:E29" si="7">"&lt;item&gt;"&amp;SUBSTITUTE(A27, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Смотрит на свои ручки, соединяет их по средней линии.&lt;/item&gt;</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D27,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Looks at their hands, puts them together symmetrically.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2617,17 +2619,17 @@
         <v>245</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A28&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="7"/>
         <v>&lt;item&gt;Прислушивается к звукам.&lt;/item&gt;</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F28:F29" si="8">"&lt;item&gt;"&amp;SUBSTITUTE(D28,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Listens attentively to sounds.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2635,11 +2637,11 @@
         <v>246</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A29&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="7"/>
         <v>&lt;item&gt;Прекращает плакать, когда слышит музыку или пение мамы.&lt;/item&gt;</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>&lt;item&gt;Stops crying when their hear music or their mother singing.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2649,10 +2651,10 @@
       <c r="C30" s="7"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2664,7 +2666,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E31" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D31&amp;"__"&amp;B31&amp;"__"&amp;C31&amp;"""&gt;"</f>
@@ -2677,7 +2679,7 @@
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2685,11 +2687,11 @@
         <v>247</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A32&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E32:E33" si="9">"&lt;item&gt;"&amp;SUBSTITUTE(A32, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Реагирует на звуки, издаваемые на расстоянии не менее 3 метров.&lt;/item&gt;</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D32,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Reacts to sounds within no less than a three meter radius.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2701,11 +2703,11 @@
         <v>248</v>
       </c>
       <c r="E33" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A33&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;item&gt;Внимательно наблюдает за движущимися предметами, рассматривает игрушки.&lt;/item&gt;</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D33,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Watches moving objects attentively, examines toys.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2715,10 +2717,10 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2730,7 +2732,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E35" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D35&amp;"__"&amp;B35&amp;"__"&amp;C35&amp;"""&gt;"</f>
@@ -2749,11 +2751,11 @@
         <v>249</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A36&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E36:E37" si="10">"&lt;item&gt;"&amp;SUBSTITUTE(A36, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Определяет, где находится источник звука, издаваемый сбоку и снизу.&lt;/item&gt;</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D36,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Defines the source of a sound below and from the side.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2765,11 +2767,11 @@
         <v>250</v>
       </c>
       <c r="E37" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A37&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="10"/>
         <v>&lt;item&gt;Сформировано бинокулярное зрение.&lt;/item&gt;</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D37,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Has binocular vision.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2779,10 +2781,10 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2794,7 +2796,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E39" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D39&amp;"__"&amp;B39&amp;"__"&amp;C39&amp;"""&gt;"</f>
@@ -2813,47 +2815,47 @@
         <v>251</v>
       </c>
       <c r="E40" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A40&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E40:E42" si="11">"&lt;item&gt;"&amp;SUBSTITUTE(A40, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Замечает мелкие предметы.&lt;/item&gt;</v>
       </c>
       <c r="F40" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D40,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Notices small objects.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E41" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A41&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="11"/>
         <v>&lt;item&gt;Прислушивается к разговору взрослых.&lt;/item&gt;</v>
       </c>
       <c r="F41" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F41:F42" si="12">"&lt;item&gt;"&amp;SUBSTITUTE(D41,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Listens to the adult’s talk.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E42" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A42&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="11"/>
         <v>&lt;item&gt;Замирает, услышав незнакомый звук.&lt;/item&gt;</v>
       </c>
       <c r="F42" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>&lt;item&gt;Becomes still when they hear an unfamiliar sound.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2863,10 +2865,10 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2878,7 +2880,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E44" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D44&amp;"__"&amp;B44&amp;"__"&amp;C44&amp;"""&gt;"</f>
@@ -2897,11 +2899,11 @@
         <v>252</v>
       </c>
       <c r="E45" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A45&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E45:E46" si="13">"&lt;item&gt;"&amp;SUBSTITUTE(A45, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Определяет, где находится источник звука, издаваемый с любой стороны. Реагирует на звуки, которые издаются на расстоянии не менее 4,5 метров.&lt;/item&gt;</v>
       </c>
       <c r="F45" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D45,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Defines the source of a sound from any direction. Reacts to sounds within no less than a 4.5 meter radius.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2915,11 +2917,11 @@
         <v>253</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A46&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="13"/>
         <v>&lt;item&gt;Рассматривает игрушки, которые держит в обеих руках, ударяет игрушками друг об друга.&lt;/item&gt;</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D46,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Examines the toys they hold in their hands, hits them against each other.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2929,10 +2931,10 @@
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2944,7 +2946,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E48" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D48&amp;"__"&amp;B48&amp;"__"&amp;C48&amp;"""&gt;"</f>
@@ -2960,14 +2962,14 @@
         <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E49" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A49&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E49:E50" si="14">"&lt;item&gt;"&amp;SUBSTITUTE(A49, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Пытается активно имитировать звуки и цепочки слогов, реагирует на смену интонации говорящего.&lt;/item&gt;</v>
       </c>
       <c r="F49" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D49,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Actively tries to imitate sounds and syllable groups, reacts to changes in the speaker’s tone.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2976,14 +2978,14 @@
         <v>27</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A50&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="14"/>
         <v>&lt;item&gt;На долгое время задерживает взгляд на лице говорящего взрослого.&lt;/item&gt;</v>
       </c>
       <c r="F50" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D50,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Continuously stares at the speaker’s face.&lt;/item&gt;</v>
       </c>
     </row>
@@ -2993,10 +2995,10 @@
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3008,7 +3010,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E52" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D52&amp;"__"&amp;B52&amp;"__"&amp;C52&amp;"""&gt;"</f>
@@ -3024,32 +3026,32 @@
         <v>29</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E53" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A53&amp;"&lt;/item&gt;"</f>
-        <v>&lt;item&gt;Начинает понимать простые бытовые инструкции ("дай", "отнеси").&lt;/item&gt;</v>
+        <f t="shared" ref="E53:E56" si="15">"&lt;item&gt;"&amp;SUBSTITUTE(A53, """","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Начинает понимать простые бытовые инструкции (\"дай\", \"отнеси\").&lt;/item&gt;</v>
       </c>
       <c r="F53" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;item&gt;Starts to understand simple commands ("give", "put").&lt;/item&gt;</v>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D53,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Starts to understand simple commands (\"give\", \"put\").&lt;/item&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A54&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="15"/>
         <v>&lt;item&gt;Знает и реагирует на некоторые бытовые звуки — шум машины, лай собаки, звонок телефона.&lt;/item&gt;</v>
       </c>
       <c r="F54" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F54:F56" si="16">"&lt;item&gt;"&amp;SUBSTITUTE(D54,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Knows and reacts to some household sounds  — sound of the car, dog’s bark, phone ring.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3058,14 +3060,14 @@
         <v>30</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A55&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="15"/>
         <v>&lt;item&gt;По просьбе взрослого может показать у куклы хотя бы одну часть тела (лица).&lt;/item&gt;</v>
       </c>
       <c r="F55" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>&lt;item&gt;When asked, can show at least one part of a doll’s body (face).&lt;/item&gt;</v>
       </c>
     </row>
@@ -3077,11 +3079,11 @@
         <v>258</v>
       </c>
       <c r="E56" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A56&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="15"/>
         <v>&lt;item&gt;Проявляет интерес к своему изображению в зеркале.&lt;/item&gt;</v>
       </c>
       <c r="F56" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>&lt;item&gt;Is interested in their reflection in the mirror.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3091,10 +3093,10 @@
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3106,7 +3108,7 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E58" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D58&amp;"__"&amp;B58&amp;"__"&amp;C58&amp;"""&gt;"</f>
@@ -3119,7 +3121,7 @@
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3127,11 +3129,11 @@
         <v>259</v>
       </c>
       <c r="E59" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A59&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E59:E61" si="17">"&lt;item&gt;"&amp;SUBSTITUTE(A59, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Развитие слуха достигает порогов слуха взрослого: реагирует на различные источники звука, определяет их местоположение.&lt;/item&gt;</v>
       </c>
       <c r="F59" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D59,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Hearing is close to that of an adult: reacts to various sources of sound, defines their location.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3143,11 +3145,11 @@
         <v>260</v>
       </c>
       <c r="E60" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A60&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="17"/>
         <v>&lt;item&gt;Реагирует на звуки, издаваемые на расстоянии 6 метров.&lt;/item&gt;</v>
       </c>
       <c r="F60" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F60:F61" si="18">"&lt;item&gt;"&amp;SUBSTITUTE(D60,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Reacts to sounds within 6 meters.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3159,11 +3161,11 @@
         <v>261</v>
       </c>
       <c r="E61" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A61&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="17"/>
         <v>&lt;item&gt;Рассматривает картинки в книжках. &lt;/item&gt;</v>
       </c>
       <c r="F61" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>&lt;item&gt;Looks at the pictures in books.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3177,10 +3179,10 @@
         <v>227</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3192,7 +3194,7 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E63" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D63&amp;"__"&amp;B63&amp;"__"&amp;C63&amp;"""&gt;"</f>
@@ -3205,7 +3207,7 @@
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3213,11 +3215,11 @@
         <v>262</v>
       </c>
       <c r="E64" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A64&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E64" si="19">"&lt;item&gt;"&amp;SUBSTITUTE(A64, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;К концу месяца может ненадолго поднимать голову. &lt;/item&gt;</v>
       </c>
       <c r="F64" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D64,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Is able to briefly lift their head by the end of the first month.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3227,10 +3229,10 @@
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3242,7 +3244,7 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E66" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D66&amp;"__"&amp;B66&amp;"__"&amp;C66&amp;"""&gt;"</f>
@@ -3261,11 +3263,11 @@
         <v>263</v>
       </c>
       <c r="E67" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A67&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E67:E68" si="20">"&lt;item&gt;"&amp;SUBSTITUTE(A67, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Лежа на животе, поднимает голову и короткое время удерживает ее.&lt;/item&gt;</v>
       </c>
       <c r="F67" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D67,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;When lying on the back, lifts their head and briefly holds it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3277,11 +3279,11 @@
         <v>264</v>
       </c>
       <c r="E68" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A68&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="20"/>
         <v>&lt;item&gt;Лежа на спине, дрыгает ножками.&lt;/item&gt;</v>
       </c>
       <c r="F68" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D68,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;When lying on the back, jerks their legs.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3291,10 +3293,10 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3306,7 +3308,7 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E70" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D70&amp;"__"&amp;B70&amp;"__"&amp;C70&amp;"""&gt;"</f>
@@ -3325,11 +3327,11 @@
         <v>265</v>
       </c>
       <c r="E71" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A71&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E71:E72" si="21">"&lt;item&gt;"&amp;SUBSTITUTE(A71, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Лежа на животе, опирается на ручки и поднимает голову под углом 90 градусов, может удержать ее в таком положении более минуты.&lt;/item&gt;</v>
       </c>
       <c r="F71" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D71,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;When lying on stomach, leans on arms and lifts their head at right angle and hold it for more than a minute.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3341,11 +3343,11 @@
         <v>266</v>
       </c>
       <c r="E72" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A72&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="21"/>
         <v>&lt;item&gt;В вертикальном или сидячем положении удерживает голову прямо.&lt;/item&gt;</v>
       </c>
       <c r="F72" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D72,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;When sitting or being put vertically holds their head straight.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3355,10 +3357,10 @@
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3370,7 +3372,7 @@
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E74" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D74&amp;"__"&amp;B74&amp;"__"&amp;C74&amp;"""&gt;"</f>
@@ -3389,17 +3391,17 @@
         <v>267</v>
       </c>
       <c r="E75" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A75&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E75:E76" si="22">"&lt;item&gt;"&amp;SUBSTITUTE(A75, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Лежа на животе, поднимает голову и плечи.&lt;/item&gt;</v>
       </c>
       <c r="F75" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D75,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;When lying on stomach, lifts their head and shoulders.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3407,11 +3409,11 @@
         <v>268</v>
       </c>
       <c r="E76" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A76&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="22"/>
         <v>&lt;item&gt;С вашей помощью может перевернуться с живота на спинку.&lt;/item&gt;</v>
       </c>
       <c r="F76" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D76,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;When lying on stomach, can turn over using your help.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3421,10 +3423,10 @@
       <c r="C77" s="7"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3436,7 +3438,7 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E78" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D78&amp;"__"&amp;B78&amp;"__"&amp;C78&amp;"""&gt;"</f>
@@ -3449,7 +3451,7 @@
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3457,11 +3459,11 @@
         <v>269</v>
       </c>
       <c r="E79" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A79&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E79:E80" si="23">"&lt;item&gt;"&amp;SUBSTITUTE(A79, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Лежа на спине поднимает ручки и ножки.&lt;/item&gt;</v>
       </c>
       <c r="F79" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D79,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;When lying on the back, lifts their arms and legs.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3473,11 +3475,11 @@
         <v>270</v>
       </c>
       <c r="E80" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A80&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="23"/>
         <v>&lt;item&gt;Может перекатываться с живота на спину, с боку на бок.&lt;/item&gt;</v>
       </c>
       <c r="F80" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D80,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can roll over from one side to another and flip from back to front.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3487,10 +3489,10 @@
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3502,7 +3504,7 @@
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E82" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D82&amp;"__"&amp;B82&amp;"__"&amp;C82&amp;"""&gt;"</f>
@@ -3515,7 +3517,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3523,11 +3525,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="3" t="str">
-        <f t="shared" ref="E83:E159" si="2">"&lt;item&gt;"&amp;A83&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E83:E85" si="24">"&lt;item&gt;"&amp;SUBSTITUTE(A83, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Сидит с опорой.&lt;/item&gt;</v>
       </c>
       <c r="F83" s="3" t="str">
-        <f t="shared" ref="F83:F159" si="3">"&lt;item&gt;"&amp;D83&amp;"&lt;/item&gt;"</f>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D83,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Sits leaning on something.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3536,14 +3538,14 @@
         <v>43</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E84" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="24"/>
         <v>&lt;item&gt;Крепко держится за пальцы мамы, когда она пытается подтянуть его в сидячее положение.&lt;/item&gt;</v>
       </c>
       <c r="F84" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F84:F85" si="25">"&lt;item&gt;"&amp;SUBSTITUTE(D84,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Holds their mother’s fingers tight when she lifts them to sit up.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3555,11 +3557,11 @@
         <v>272</v>
       </c>
       <c r="E85" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="24"/>
         <v>&lt;item&gt;Лежа на животе, опирается на ручку, при этом другой рукой тянется за интересующим его предметом.&lt;/item&gt;</v>
       </c>
       <c r="F85" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="25"/>
         <v>&lt;item&gt;When lying on stomach, leans on one arm and reaches for an object they want with the other.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3569,10 +3571,10 @@
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3584,7 +3586,7 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E87" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D87&amp;"__"&amp;B87&amp;"__"&amp;C87&amp;"""&gt;"</f>
@@ -3603,17 +3605,17 @@
         <v>273</v>
       </c>
       <c r="E88" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E88:E91" si="26">"&lt;item&gt;"&amp;SUBSTITUTE(A88, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Переворачивается со спины на живот.&lt;/item&gt;</v>
       </c>
       <c r="F88" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D88,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Flips from back to front.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3621,17 +3623,17 @@
         <v>274</v>
       </c>
       <c r="E89" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>&lt;item&gt;Лежа на спинке, подтягивает ножки и играет с ними.&lt;/item&gt;</v>
       </c>
       <c r="F89" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F89:F91" si="27">"&lt;item&gt;"&amp;SUBSTITUTE(D89,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;When lying on the back, pull their legs close and plays with them.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3639,11 +3641,11 @@
         <v>275</v>
       </c>
       <c r="E90" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>&lt;item&gt;Сидит, но неуверенно, наклоняясь вперед.&lt;/item&gt;</v>
       </c>
       <c r="F90" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>&lt;item&gt;Sits unsteadily, leaning forward.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3655,11 +3657,11 @@
         <v>276</v>
       </c>
       <c r="E91" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>&lt;item&gt;Когда держат за руки, может стоять на ножках непродолжительное время.&lt;/item&gt;</v>
       </c>
       <c r="F91" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>&lt;item&gt;Can stand for a short time when held by the arms.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3669,10 +3671,10 @@
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3684,7 +3686,7 @@
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E93" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D93&amp;"__"&amp;B93&amp;"__"&amp;C93&amp;"""&gt;"</f>
@@ -3703,11 +3705,11 @@
         <v>277</v>
       </c>
       <c r="E94" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E94:E96" si="28">"&lt;item&gt;"&amp;SUBSTITUTE(A94, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Сидит, удерживает равновесие. Может сидеть без поддержки, опираясь на ручки.&lt;/item&gt;</v>
       </c>
       <c r="F94" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D94,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Sits steadily. Can sit without support leaning on the arms.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3719,17 +3721,17 @@
         <v>278</v>
       </c>
       <c r="E95" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>&lt;item&gt;Ползает как тюлень назад.&lt;/item&gt;</v>
       </c>
       <c r="F95" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F95:F96" si="29">"&lt;item&gt;"&amp;SUBSTITUTE(D95,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Crawls backwards like a seal.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3737,11 +3739,11 @@
         <v>279</v>
       </c>
       <c r="E96" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>&lt;item&gt;Пытается встать у опоры и стоять самостоятельно (поднимается в положение стоя). Стоит с поддержкой.&lt;/item&gt;</v>
       </c>
       <c r="F96" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>&lt;item&gt;Is trying to stand on their own holding onto something. Stands holding onto something.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3751,10 +3753,10 @@
       <c r="C97" s="7"/>
       <c r="D97" s="6"/>
       <c r="E97" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3766,7 +3768,7 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E98" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D98&amp;"__"&amp;B98&amp;"__"&amp;C98&amp;"""&gt;"</f>
@@ -3785,11 +3787,11 @@
         <v>280</v>
       </c>
       <c r="E99" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E99:E102" si="30">"&lt;item&gt;"&amp;SUBSTITUTE(A99, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Ползает по-пластунски вперед и вокруг своей оси.&lt;/item&gt;</v>
       </c>
       <c r="F99" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D99,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Crawls forward and about themselves on their stomach.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3801,11 +3803,11 @@
         <v>281</v>
       </c>
       <c r="E100" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="30"/>
         <v>&lt;item&gt;Уверенно сидит.&lt;/item&gt;</v>
       </c>
       <c r="F100" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F100:F102" si="31">"&lt;item&gt;"&amp;SUBSTITUTE(D100,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Sits steadily.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3817,11 +3819,11 @@
         <v>282</v>
       </c>
       <c r="E101" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="30"/>
         <v>&lt;item&gt;Встает сам при поддержке. Делает несколько шагов, если его поддерживают.&lt;/item&gt;</v>
       </c>
       <c r="F101" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>&lt;item&gt;Gets up on their own holding onto something. Makes several steps if they are being supported.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3833,11 +3835,11 @@
         <v>283</v>
       </c>
       <c r="E102" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="30"/>
         <v>&lt;item&gt;Поднимает одну ножку.&lt;/item&gt;</v>
       </c>
       <c r="F102" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>&lt;item&gt;Lifts one leg.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3847,10 +3849,10 @@
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3862,7 +3864,7 @@
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E104" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D104&amp;"__"&amp;B104&amp;"__"&amp;C104&amp;"""&gt;"</f>
@@ -3881,11 +3883,11 @@
         <v>284</v>
       </c>
       <c r="E105" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E105:E109" si="32">"&lt;item&gt;"&amp;SUBSTITUTE(A105, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Ползает на четвереньках вперед и назад.&lt;/item&gt;</v>
       </c>
       <c r="F105" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D105,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Crawls back and forth on all fours.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3897,11 +3899,11 @@
         <v>285</v>
       </c>
       <c r="E106" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="32"/>
         <v>&lt;item&gt;Стоит почти без поддержки.&lt;/item&gt;</v>
       </c>
       <c r="F106" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F106:F109" si="33">"&lt;item&gt;"&amp;SUBSTITUTE(D106,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Stands almost without support.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3913,11 +3915,11 @@
         <v>286</v>
       </c>
       <c r="E107" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="32"/>
         <v>&lt;item&gt;Садится на пол из положения стоя.&lt;/item&gt;</v>
       </c>
       <c r="F107" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>&lt;item&gt;Can sit on the floor when standing.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3929,11 +3931,11 @@
         <v>287</v>
       </c>
       <c r="E108" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="32"/>
         <v>&lt;item&gt;Держится за опору, встает на ножки.&lt;/item&gt;</v>
       </c>
       <c r="F108" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>&lt;item&gt;Stands up holding onto something.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3945,11 +3947,11 @@
         <v>288</v>
       </c>
       <c r="E109" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="32"/>
         <v>&lt;item&gt;Делает шаговые движения.&lt;/item&gt;</v>
       </c>
       <c r="F109" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>&lt;item&gt;Makes walking movements.&lt;/item&gt;</v>
       </c>
     </row>
@@ -3959,10 +3961,10 @@
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3974,7 +3976,7 @@
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E111" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D111&amp;"__"&amp;B111&amp;"__"&amp;C111&amp;"""&gt;"</f>
@@ -3993,11 +3995,11 @@
         <v>289</v>
       </c>
       <c r="E112" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E112:E114" si="34">"&lt;item&gt;"&amp;SUBSTITUTE(A112, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Ползает на четвереньках во всех направлениях.&lt;/item&gt;</v>
       </c>
       <c r="F112" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D112,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Crawls on all fourth in all directions.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4009,17 +4011,17 @@
         <v>290</v>
       </c>
       <c r="E113" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>&lt;item&gt;Ходит боком, держась за опору.&lt;/item&gt;</v>
       </c>
       <c r="F113" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F113:F114" si="35">"&lt;item&gt;"&amp;SUBSTITUTE(D113,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Walks sideways holding onto something.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4027,11 +4029,11 @@
         <v>291</v>
       </c>
       <c r="E114" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>&lt;item&gt;Делает 1—2 шага с вашей помощью.&lt;/item&gt;</v>
       </c>
       <c r="F114" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>&lt;item&gt;Makes 1 or 2 steps with your help.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4041,10 +4043,10 @@
       <c r="C115" s="7"/>
       <c r="D115" s="6"/>
       <c r="E115" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4056,7 +4058,7 @@
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E116" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D116&amp;"__"&amp;B116&amp;"__"&amp;C116&amp;"""&gt;"</f>
@@ -4069,7 +4071,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4077,29 +4079,29 @@
         <v>292</v>
       </c>
       <c r="E117" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E117:E118" si="36">"&lt;item&gt;"&amp;SUBSTITUTE(A117, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Уверенно самостоятельно сидит.&lt;/item&gt;</v>
       </c>
       <c r="F117" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D117,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Sits steadily on their own.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E118" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="36"/>
         <v>&lt;item&gt;Держась за мамину руку, делает несколько шагов.&lt;/item&gt;</v>
       </c>
       <c r="F118" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D118,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can make several steps holding the mother’s hand.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4109,10 +4111,10 @@
       <c r="C119" s="7"/>
       <c r="D119" s="6"/>
       <c r="E119" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4126,7 +4128,7 @@
         <v>18</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E120" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D120&amp;"__"&amp;B120&amp;"__"&amp;C120&amp;"""&gt;"</f>
@@ -4145,11 +4147,11 @@
         <v>293</v>
       </c>
       <c r="E121" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E121:E125" si="37">"&lt;item&gt;"&amp;SUBSTITUTE(A121, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Ходит самостоятельно.&lt;/item&gt;</v>
       </c>
       <c r="F121" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D121,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Walks on their own.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4161,11 +4163,11 @@
         <v>294</v>
       </c>
       <c r="E122" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="37"/>
         <v>&lt;item&gt;Бьет ногой по мячу.&lt;/item&gt;</v>
       </c>
       <c r="F122" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F122:F125" si="38">"&lt;item&gt;"&amp;SUBSTITUTE(D122,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Kicks a ball.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4174,14 +4176,14 @@
         <v>64</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E123" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="37"/>
         <v>&lt;item&gt;Бегает уверенно, не падает, огибая углы и резко останавливаясь.&lt;/item&gt;</v>
       </c>
       <c r="F123" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>&lt;item&gt;Runs steadily, doesn’t fall down, dodges corners and stops suddenly.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4193,11 +4195,11 @@
         <v>295</v>
       </c>
       <c r="E124" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="37"/>
         <v>&lt;item&gt;Вскарабкивается и садится на стул.&lt;/item&gt;</v>
       </c>
       <c r="F124" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>&lt;item&gt;Climbs and sits on a chair.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4209,11 +4211,11 @@
         <v>296</v>
       </c>
       <c r="E125" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="37"/>
         <v>&lt;item&gt;Лазает по сооружениям на детской площадке.&lt;/item&gt;</v>
       </c>
       <c r="F125" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>&lt;item&gt;Climbs structures on the playground.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4223,10 +4225,10 @@
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4240,7 +4242,7 @@
         <v>24</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E127" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D127&amp;"__"&amp;B127&amp;"__"&amp;C127&amp;"""&gt;"</f>
@@ -4259,11 +4261,11 @@
         <v>297</v>
       </c>
       <c r="E128" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E128:E130" si="39">"&lt;item&gt;"&amp;SUBSTITUTE(A128, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Уверенно поднимается и спускается по лестнице, ставя ноги поочередно на каждую ступеньку. &lt;/item&gt;</v>
       </c>
       <c r="F128" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D128,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Climbs up and down a ladder or stairs, putting one foot after the other on each step.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4275,11 +4277,11 @@
         <v>298</v>
       </c>
       <c r="E129" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="39"/>
         <v>&lt;item&gt;Самостоятельно влезает по лестнице на горку и съезжает с нее.&lt;/item&gt;</v>
       </c>
       <c r="F129" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F129:F130" si="40">"&lt;item&gt;"&amp;SUBSTITUTE(D129,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Climbs a slide on their own and rides it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4291,11 +4293,11 @@
         <v>299</v>
       </c>
       <c r="E130" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="39"/>
         <v>&lt;item&gt;Сохраняет равновесие и координацию в подвижных играх (бег, лазанье, прыжки).&lt;/item&gt;</v>
       </c>
       <c r="F130" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="40"/>
         <v>&lt;item&gt;Keeps their balance and leg coordination in active games (running, climbing, jumping)&lt;/item&gt;</v>
       </c>
     </row>
@@ -4305,10 +4307,10 @@
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4322,7 +4324,7 @@
         <v>30</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E132" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D132&amp;"__"&amp;B132&amp;"__"&amp;C132&amp;"""&gt;"</f>
@@ -4341,17 +4343,17 @@
         <v>300</v>
       </c>
       <c r="E133" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E133:E136" si="41">"&lt;item&gt;"&amp;SUBSTITUTE(A133, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Прыгает со ступенек двумя ногами вместе.&lt;/item&gt;</v>
       </c>
       <c r="F133" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D133,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Jumps down a step with both legs.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4359,11 +4361,11 @@
         <v>301</v>
       </c>
       <c r="E134" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="41"/>
         <v>&lt;item&gt;Играет в мяч с другими детьми, бросает мяч и ловит, по крайней мере, в половине случаев.&lt;/item&gt;</v>
       </c>
       <c r="F134" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F134:F136" si="42">"&lt;item&gt;"&amp;SUBSTITUTE(D134,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Plays ball with other children, can throw a ball and catch it at least every second time.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4375,11 +4377,11 @@
         <v>302</v>
       </c>
       <c r="E135" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="41"/>
         <v>&lt;item&gt;Стоит на одной ноге несколько секунд без поддержки.&lt;/item&gt;</v>
       </c>
       <c r="F135" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="42"/>
         <v>&lt;item&gt;Can stand on one leg for several seconds without support.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4391,11 +4393,11 @@
         <v>303</v>
       </c>
       <c r="E136" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="41"/>
         <v>&lt;item&gt;Из положения стоя перепрыгивает через невысокие предметы.&lt;/item&gt;</v>
       </c>
       <c r="F136" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="42"/>
         <v>&lt;item&gt;When standing, can jump over small objects.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4405,10 +4407,10 @@
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4422,7 +4424,7 @@
         <v>36</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E138" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D138&amp;"__"&amp;B138&amp;"__"&amp;C138&amp;"""&gt;"</f>
@@ -4435,7 +4437,7 @@
     </row>
     <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4443,11 +4445,11 @@
         <v>304</v>
       </c>
       <c r="E139" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E139:E142" si="43">"&lt;item&gt;"&amp;SUBSTITUTE(A139, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Едет на трехколесном велосипеде, нажимая на педали.&lt;/item&gt;</v>
       </c>
       <c r="F139" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D139,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Pedals a tricycle.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4459,17 +4461,17 @@
         <v>305</v>
       </c>
       <c r="E140" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="43"/>
         <v>&lt;item&gt;Уверенно стоит на одной ноге без поддержки.&lt;/item&gt;</v>
       </c>
       <c r="F140" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F140:F141" si="44">"&lt;item&gt;"&amp;SUBSTITUTE(D140,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can stand on one leg steadily without support.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4477,11 +4479,11 @@
         <v>306</v>
       </c>
       <c r="E141" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="43"/>
         <v>&lt;item&gt;На бегу перепрыгивает через препятствия.&lt;/item&gt;</v>
       </c>
       <c r="F141" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="44"/>
         <v>&lt;item&gt;Can jump over obstacles when running.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4493,11 +4495,11 @@
         <v>307</v>
       </c>
       <c r="E142" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="43"/>
         <v>&lt;item&gt;Делает кувырок вперед. &lt;/item&gt;</v>
       </c>
       <c r="F142" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D142,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can tumble forward.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4511,10 +4513,10 @@
         <v>228</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4526,7 +4528,7 @@
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E144" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D144&amp;"__"&amp;B144&amp;"__"&amp;C144&amp;"""&gt;"</f>
@@ -4539,7 +4541,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -4547,17 +4549,17 @@
         <v>308</v>
       </c>
       <c r="E145" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E145:E146" si="45">"&lt;item&gt;"&amp;SUBSTITUTE(A145, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Активный хватательный рефлекс.&lt;/item&gt;</v>
       </c>
       <c r="F145" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D145,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Has a good grabbing reflex.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -4565,11 +4567,11 @@
         <v>309</v>
       </c>
       <c r="E146" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="45"/>
         <v>&lt;item&gt;Ладошка сжата в кулачок.&lt;/item&gt;</v>
       </c>
       <c r="F146" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D146,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;The fists are clenched.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4579,10 +4581,10 @@
       <c r="C147" s="7"/>
       <c r="D147" s="6"/>
       <c r="E147" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4594,7 +4596,7 @@
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E148" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D148&amp;"__"&amp;B148&amp;"__"&amp;C148&amp;"""&gt;"</f>
@@ -4610,14 +4612,14 @@
         <v>79</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E149" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E149:E151" si="46">"&lt;item&gt;"&amp;SUBSTITUTE(A149, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Тянет ручки к игрушке, но не может дотянуться и схватить ее.&lt;/item&gt;</v>
       </c>
       <c r="F149" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D149,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Reaches for a toy but can’t grab it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4629,11 +4631,11 @@
         <v>310</v>
       </c>
       <c r="E150" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="46"/>
         <v>&lt;item&gt;Ладошка полураскрыта.&lt;/item&gt;</v>
       </c>
       <c r="F150" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F150:F151" si="47">"&lt;item&gt;"&amp;SUBSTITUTE(D150,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;The palms are half-open.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4645,11 +4647,11 @@
         <v>311</v>
       </c>
       <c r="E151" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="46"/>
         <v>&lt;item&gt;Трясет вложенной в руку погремушкой.&lt;/item&gt;</v>
       </c>
       <c r="F151" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="47"/>
         <v>&lt;item&gt;Shakes a rattle when you give it to them.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4659,10 +4661,10 @@
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4674,7 +4676,7 @@
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E153" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D153&amp;"__"&amp;B153&amp;"__"&amp;C153&amp;"""&gt;"</f>
@@ -4690,14 +4692,14 @@
         <v>83</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E154" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E154:E155" si="48">"&lt;item&gt;"&amp;SUBSTITUTE(A154, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Дотягивается до игрушки и ударяет по ней, но все еще не может ухватить ее.&lt;/item&gt;</v>
       </c>
       <c r="F154" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D154,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Reaches their toy and hits it but still can’t grab it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4709,11 +4711,11 @@
         <v>312</v>
       </c>
       <c r="E155" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="48"/>
         <v>&lt;item&gt;Рассматривает свои пальчики и двигает ими.&lt;/item&gt;</v>
       </c>
       <c r="F155" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D155,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Examines their fingers and moves them.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4723,10 +4725,10 @@
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4738,7 +4740,7 @@
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E157" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D157&amp;"__"&amp;B157&amp;"__"&amp;C157&amp;"""&gt;"</f>
@@ -4757,17 +4759,17 @@
         <v>313</v>
       </c>
       <c r="E158" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E158:E160" si="49">"&lt;item&gt;"&amp;SUBSTITUTE(A158, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Играет со своими ручками.&lt;/item&gt;</v>
       </c>
       <c r="F158" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D158,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Plays with their hands.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -4775,11 +4777,11 @@
         <v>314</v>
       </c>
       <c r="E159" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="49"/>
         <v>&lt;item&gt;Соединяет ручки по средней линии перед собой.&lt;/item&gt;</v>
       </c>
       <c r="F159" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F159:F160" si="50">"&lt;item&gt;"&amp;SUBSTITUTE(D159,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Puts their hands together symmetrically in front of them.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4791,11 +4793,11 @@
         <v>315</v>
       </c>
       <c r="E160" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A160&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="49"/>
         <v>&lt;item&gt;Хватает предмет, дотянувшись до него. Тянет игрушки в рот.&lt;/item&gt;</v>
       </c>
       <c r="F160" s="3" t="str">
-        <f t="shared" ref="F160:F238" si="4">"&lt;item&gt;"&amp;D160&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="50"/>
         <v>&lt;item&gt;Grabs an object when they reach it. Tries to put it in their mouth.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4805,10 +4807,10 @@
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4820,7 +4822,7 @@
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E162" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D162&amp;"__"&amp;B162&amp;"__"&amp;C162&amp;"""&gt;"</f>
@@ -4839,11 +4841,11 @@
         <v>316</v>
       </c>
       <c r="E163" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A163&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E163:E164" si="51">"&lt;item&gt;"&amp;SUBSTITUTE(A163, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Протягивает руки и старается схватить движущийся предмет.&lt;/item&gt;</v>
       </c>
       <c r="F163" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D163,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Reaches for a moving object and tries to grab it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4855,11 +4857,11 @@
         <v>317</v>
       </c>
       <c r="E164" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A164&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="51"/>
         <v>&lt;item&gt;Берет игрушку одной рукой, затем другой и изучает ее.&lt;/item&gt;</v>
       </c>
       <c r="F164" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D164,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Picks a toy with one hand, then with the other and examines it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4869,10 +4871,10 @@
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4884,7 +4886,7 @@
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E166" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D166&amp;"__"&amp;B166&amp;"__"&amp;C166&amp;"""&gt;"</f>
@@ -4903,11 +4905,11 @@
         <v>318</v>
       </c>
       <c r="E167" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A167&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E167:E170" si="52">"&lt;item&gt;"&amp;SUBSTITUTE(A167, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Держит в руках бутылочку.&lt;/item&gt;</v>
       </c>
       <c r="F167" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D167,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Holds a bottle.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4919,11 +4921,11 @@
         <v>319</v>
       </c>
       <c r="E168" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A168&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="52"/>
         <v>&lt;item&gt;Перекладывает игрушку из руки в руку. Трясет, ощупывает ее, бьет ею по столу.&lt;/item&gt;</v>
       </c>
       <c r="F168" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F168:F170" si="53">"&lt;item&gt;"&amp;SUBSTITUTE(D168,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Shifts a toy from one hand to the other. Shakes it, feels it with their hands, hits it on the table.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4935,11 +4937,11 @@
         <v>320</v>
       </c>
       <c r="E169" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A169&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="52"/>
         <v>&lt;item&gt;Тянется ко второй игрушке и хватает ее, при этом роняет первую игрушку.&lt;/item&gt;</v>
       </c>
       <c r="F169" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="53"/>
         <v>&lt;item&gt;Reaches for a second toy and grabs it, but drops the first one.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4951,11 +4953,11 @@
         <v>321</v>
       </c>
       <c r="E170" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A170&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="52"/>
         <v>&lt;item&gt;Захватывает предметы указательным и большим пальчиками.&lt;/item&gt;</v>
       </c>
       <c r="F170" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="53"/>
         <v>&lt;item&gt;Grabs items with an index finger and a thumb.&lt;/item&gt;</v>
       </c>
     </row>
@@ -4965,10 +4967,10 @@
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4980,7 +4982,7 @@
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E172" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D172&amp;"__"&amp;B172&amp;"__"&amp;C172&amp;"""&gt;"</f>
@@ -4999,11 +5001,11 @@
         <v>322</v>
       </c>
       <c r="E173" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A173&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E173:E175" si="54">"&lt;item&gt;"&amp;SUBSTITUTE(A173, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Может играть с двумя игрушками одновременно.&lt;/item&gt;</v>
       </c>
       <c r="F173" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D173,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can play with two toys at the same time.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5015,11 +5017,11 @@
         <v>323</v>
       </c>
       <c r="E174" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A174&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="54"/>
         <v>&lt;item&gt;Держит в руке печенье.&lt;/item&gt;</v>
       </c>
       <c r="F174" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F174:F175" si="55">"&lt;item&gt;"&amp;SUBSTITUTE(D174,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Holds a cookie.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5031,11 +5033,11 @@
         <v>324</v>
       </c>
       <c r="E175" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A175&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="54"/>
         <v>&lt;item&gt;Может держать игрушку только пальчиками, а не всей ладошкой.&lt;/item&gt;</v>
       </c>
       <c r="F175" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="55"/>
         <v>&lt;item&gt;Can hold a toy only with their fingers (not the palm).&lt;/item&gt;</v>
       </c>
     </row>
@@ -5045,10 +5047,10 @@
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5060,7 +5062,7 @@
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E177" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D177&amp;"__"&amp;B177&amp;"__"&amp;C177&amp;"""&gt;"</f>
@@ -5081,11 +5083,11 @@
         <v>325</v>
       </c>
       <c r="E178" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A178&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E178:E182" si="56">"&lt;item&gt;"&amp;SUBSTITUTE(A178, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Умеет стаскивать носок с ноги.&lt;/item&gt;</v>
       </c>
       <c r="F178" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D178,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can pull off a sock.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5097,11 +5099,11 @@
         <v>326</v>
       </c>
       <c r="E179" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A179&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="56"/>
         <v>&lt;item&gt;Играет в ладушки.&lt;/item&gt;</v>
       </c>
       <c r="F179" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F179:F182" si="57">"&lt;item&gt;"&amp;SUBSTITUTE(D179,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Plays patty-cake.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5113,11 +5115,11 @@
         <v>327</v>
       </c>
       <c r="E180" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A180&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="56"/>
         <v>&lt;item&gt;Показывает пальчиком на предмет.&lt;/item&gt;</v>
       </c>
       <c r="F180" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>&lt;item&gt;Points at an object with their finger.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5129,11 +5131,11 @@
         <v>328</v>
       </c>
       <c r="E181" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A181&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="56"/>
         <v>&lt;item&gt;Откладывает игрушку в одну сторону, если хочет взять в руку другую.&lt;/item&gt;</v>
       </c>
       <c r="F181" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>&lt;item&gt;Puts one toy away when they want to take another.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5145,11 +5147,11 @@
         <v>329</v>
       </c>
       <c r="E182" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A182&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="56"/>
         <v>&lt;item&gt;Учится брать предметы большим, указательным и средним пальчиками (пинцетный захват).&lt;/item&gt;</v>
       </c>
       <c r="F182" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="57"/>
         <v>&lt;item&gt;Learns to pick up items with their thumb, index and middle finger (cortical opposition)&lt;/item&gt;</v>
       </c>
     </row>
@@ -5159,10 +5161,10 @@
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5174,7 +5176,7 @@
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E184" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D184&amp;"__"&amp;B184&amp;"__"&amp;C184&amp;"""&gt;"</f>
@@ -5193,11 +5195,11 @@
         <v>330</v>
       </c>
       <c r="E185" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A185&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E185:E188" si="58">"&lt;item&gt;"&amp;SUBSTITUTE(A185, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Намеренно бросает игрушки.&lt;/item&gt;</v>
       </c>
       <c r="F185" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D185,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Throws toys intentionally.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5209,11 +5211,11 @@
         <v>331</v>
       </c>
       <c r="E186" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A186&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="58"/>
         <v>&lt;item&gt;Вытаскивает кубики или игрушки из коробки.&lt;/item&gt;</v>
       </c>
       <c r="F186" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F186:F188" si="59">"&lt;item&gt;"&amp;SUBSTITUTE(D186,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Picks up toys or blocks from a box.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5225,17 +5227,17 @@
         <v>332</v>
       </c>
       <c r="E187" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A187&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="58"/>
         <v>&lt;item&gt;Ест пальчиками.&lt;/item&gt;</v>
       </c>
       <c r="F187" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="59"/>
         <v>&lt;item&gt;Eats with their fingers.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -5243,11 +5245,11 @@
         <v>333</v>
       </c>
       <c r="E188" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A188&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="58"/>
         <v>&lt;item&gt;Начинает осваивать щипковый захват (захват большим и указательным пальчиками).&lt;/item&gt;</v>
       </c>
       <c r="F188" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="59"/>
         <v>&lt;item&gt;Starts to learn pincer grip (with a thumb and an index finger)&lt;/item&gt;</v>
       </c>
     </row>
@@ -5257,10 +5259,10 @@
       <c r="C189" s="7"/>
       <c r="D189" s="6"/>
       <c r="E189" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5272,7 +5274,7 @@
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E190" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D190&amp;"__"&amp;B190&amp;"__"&amp;C190&amp;"""&gt;"</f>
@@ -5291,11 +5293,11 @@
         <v>334</v>
       </c>
       <c r="E191" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A191&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E191:E194" si="60">"&lt;item&gt;"&amp;SUBSTITUTE(A191, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Ударяет предметами друг о друга.&lt;/item&gt;</v>
       </c>
       <c r="F191" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D191,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Hits objects against each other.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5307,11 +5309,11 @@
         <v>335</v>
       </c>
       <c r="E192" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A192&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="60"/>
         <v>&lt;item&gt;Катает мяч по полу.&lt;/item&gt;</v>
       </c>
       <c r="F192" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F192:F194" si="61">"&lt;item&gt;"&amp;SUBSTITUTE(D192,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Rolls a ball on the floor.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5323,11 +5325,11 @@
         <v>336</v>
       </c>
       <c r="E193" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A193&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="60"/>
         <v>&lt;item&gt;Берет ложку за ручку.&lt;/item&gt;</v>
       </c>
       <c r="F193" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="61"/>
         <v>&lt;item&gt;Grabs a spoon by its long part.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5339,11 +5341,11 @@
         <v>337</v>
       </c>
       <c r="E194" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A194&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="60"/>
         <v>&lt;item&gt;Поднимает чашку двумя руками.&lt;/item&gt;</v>
       </c>
       <c r="F194" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="61"/>
         <v>&lt;item&gt;Picks up a cup with both hands.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5353,10 +5355,10 @@
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="E195" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5368,7 +5370,7 @@
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E196" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D196&amp;"__"&amp;B196&amp;"__"&amp;C196&amp;"""&gt;"</f>
@@ -5381,7 +5383,7 @@
     </row>
     <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -5389,11 +5391,11 @@
         <v>338</v>
       </c>
       <c r="E197" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A197&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E197" si="62">"&lt;item&gt;"&amp;SUBSTITUTE(A197, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Показывает рукой на интересующий его предмет (указательный жест).&lt;/item&gt;</v>
       </c>
       <c r="F197" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D197,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Points at an object of interest with their finger.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5403,10 +5405,10 @@
       <c r="C198" s="7"/>
       <c r="D198" s="6"/>
       <c r="E198" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5418,7 +5420,7 @@
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E199" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D199&amp;"__"&amp;B199&amp;"__"&amp;C199&amp;"""&gt;"</f>
@@ -5437,11 +5439,11 @@
         <v>339</v>
       </c>
       <c r="E200" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A200&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E200:E201" si="63">"&lt;item&gt;"&amp;SUBSTITUTE(A200, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Хлопает в ладоши. &lt;/item&gt;</v>
       </c>
       <c r="F200" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D200,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Claps their hands.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5453,11 +5455,11 @@
         <v>340</v>
       </c>
       <c r="E201" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A201&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="63"/>
         <v>&lt;item&gt;Может удержать в руке карандаш, чиркает карандашом.&lt;/item&gt;</v>
       </c>
       <c r="F201" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D201,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can hold a pencil, scribbles with it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5467,10 +5469,10 @@
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5484,7 +5486,7 @@
         <v>18</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E203" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D203&amp;"__"&amp;B203&amp;"__"&amp;C203&amp;"""&gt;"</f>
@@ -5503,11 +5505,11 @@
         <v>341</v>
       </c>
       <c r="E204" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A204&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E204:E207" si="64">"&lt;item&gt;"&amp;SUBSTITUTE(A204, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Предпочитает действовать ведущей рукой.&lt;/item&gt;</v>
       </c>
       <c r="F204" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D204,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Prefers their leading hand.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5519,29 +5521,29 @@
         <v>342</v>
       </c>
       <c r="E205" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A205&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="64"/>
         <v>&lt;item&gt;Чертит каракули мелком или карандашом.&lt;/item&gt;</v>
       </c>
       <c r="F205" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F205:F207" si="65">"&lt;item&gt;"&amp;SUBSTITUTE(D205,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Scribbles with a piece of chalk or a pencil.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E206" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A206&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="64"/>
         <v>&lt;item&gt;Перелистывает страницы детской книжки (по одной).&lt;/item&gt;</v>
       </c>
       <c r="F206" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="65"/>
         <v>&lt;item&gt;Flips pages of a children’s book (one by one).&lt;/item&gt;</v>
       </c>
     </row>
@@ -5553,11 +5555,11 @@
         <v>343</v>
       </c>
       <c r="E207" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A207&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="64"/>
         <v>&lt;item&gt;Отвинчивает и завинчивает крышки банок и бутылок.&lt;/item&gt;</v>
       </c>
       <c r="F207" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="65"/>
         <v>&lt;item&gt;Can screw and unscrew bottle and jar caps.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5567,10 +5569,10 @@
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5584,7 +5586,7 @@
         <v>24</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E209" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D209&amp;"__"&amp;B209&amp;"__"&amp;C209&amp;"""&gt;"</f>
@@ -5603,17 +5605,17 @@
         <v>344</v>
       </c>
       <c r="E210" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A210&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E210:E212" si="66">"&lt;item&gt;"&amp;SUBSTITUTE(A210, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Чертит каракули круговыми движениями.&lt;/item&gt;</v>
       </c>
       <c r="F210" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D210,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Scribbles in circles.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -5621,11 +5623,11 @@
         <v>345</v>
       </c>
       <c r="E211" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A211&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="66"/>
         <v>&lt;item&gt;Строит башни из пяти и более кубиков.&lt;/item&gt;</v>
       </c>
       <c r="F211" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F211:F212" si="67">"&lt;item&gt;"&amp;SUBSTITUTE(D211,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Builds towers out of five and more blocks.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5637,11 +5639,11 @@
         <v>346</v>
       </c>
       <c r="E212" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A212&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="66"/>
         <v>&lt;item&gt;Держит мелок несколькими пальцами, почти как взрослый.&lt;/item&gt;</v>
       </c>
       <c r="F212" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="67"/>
         <v>&lt;item&gt;Holds a piece of chalk with several fingers like an adult.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5651,10 +5653,10 @@
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="E213" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5668,7 +5670,7 @@
         <v>30</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E214" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D214&amp;"__"&amp;B214&amp;"__"&amp;C214&amp;"""&gt;"</f>
@@ -5687,11 +5689,11 @@
         <v>347</v>
       </c>
       <c r="E215" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A215&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E215:E218" si="68">"&lt;item&gt;"&amp;SUBSTITUTE(A215, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Пытается резать маленькими ножницами.&lt;/item&gt;</v>
       </c>
       <c r="F215" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D215,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Tries to cut things with small scissors.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5703,11 +5705,11 @@
         <v>348</v>
       </c>
       <c r="E216" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A216&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="68"/>
         <v>&lt;item&gt;Строит башни из восьми и более кубиков.&lt;/item&gt;</v>
       </c>
       <c r="F216" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F216:F218" si="69">"&lt;item&gt;"&amp;SUBSTITUTE(D216,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Builds towers out of eight and more blocks.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5719,17 +5721,17 @@
         <v>349</v>
       </c>
       <c r="E217" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A217&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="68"/>
         <v>&lt;item&gt;Рисует вертикальные и горизонтальные линии.&lt;/item&gt;</v>
       </c>
       <c r="F217" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="69"/>
         <v>&lt;item&gt;Draws vertical and horizontal lines.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -5737,11 +5739,11 @@
         <v>350</v>
       </c>
       <c r="E218" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A218&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="68"/>
         <v>&lt;item&gt;Делает постройки из кубиков (простой дом, мост).&lt;/item&gt;</v>
       </c>
       <c r="F218" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="69"/>
         <v>&lt;item&gt;Builds block structures (simple houses, bridges).&lt;/item&gt;</v>
       </c>
     </row>
@@ -5751,10 +5753,10 @@
       <c r="C219" s="7"/>
       <c r="D219" s="6"/>
       <c r="E219" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5768,7 +5770,7 @@
         <v>36</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E220" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D220&amp;"__"&amp;B220&amp;"__"&amp;C220&amp;"""&gt;"</f>
@@ -5787,11 +5789,11 @@
         <v>351</v>
       </c>
       <c r="E221" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A221&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E221:E222" si="70">"&lt;item&gt;"&amp;SUBSTITUTE(A221, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Рисует полный круг, две пересекающиеся линии.&lt;/item&gt;</v>
       </c>
       <c r="F221" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D221,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Draws a full circle, two lines crossing.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5803,11 +5805,11 @@
         <v>352</v>
       </c>
       <c r="E222" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A222&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="70"/>
         <v>&lt;item&gt;Кладет на место фрагменты складной картинки.&lt;/item&gt;</v>
       </c>
       <c r="F222" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D222,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Pieces together a jigsaw puzzle.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5821,10 +5823,10 @@
         <v>229</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -5836,7 +5838,7 @@
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E224" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D224&amp;"__"&amp;B224&amp;"__"&amp;C224&amp;"""&gt;"</f>
@@ -5855,11 +5857,11 @@
         <v>353</v>
       </c>
       <c r="E225" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A225&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E225:E226" si="71">"&lt;item&gt;"&amp;SUBSTITUTE(A225, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Криком и плачем сообщает о том, что проголодался, что ему больно, о своем недовольстве.&lt;/item&gt;</v>
       </c>
       <c r="F225" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D225,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Makes it clear that they are hungry, in pain or unhappy by crying.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5871,11 +5873,11 @@
         <v>354</v>
       </c>
       <c r="E226" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A226&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="71"/>
         <v>&lt;item&gt;Успокаивается, когда берут на руки, ласково разговаривают, кормят грудью.&lt;/item&gt;</v>
       </c>
       <c r="F226" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D226,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Calms down when being picked up, talked to kindly or breastfed.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5885,10 +5887,10 @@
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="E227" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5900,7 +5902,7 @@
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E228" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D228&amp;"__"&amp;B228&amp;"__"&amp;C228&amp;"""&gt;"</f>
@@ -5919,11 +5921,11 @@
         <v>355</v>
       </c>
       <c r="E229" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A229&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E229" si="72">"&lt;item&gt;"&amp;SUBSTITUTE(A229, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Улыбается в ответ на вашу улыбку.&lt;/item&gt;</v>
       </c>
       <c r="F229" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D229,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Smiles back at you.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5933,10 +5935,10 @@
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="E230" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -5948,7 +5950,7 @@
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E231" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D231&amp;"__"&amp;B231&amp;"__"&amp;C231&amp;"""&gt;"</f>
@@ -5967,11 +5969,11 @@
         <v>356</v>
       </c>
       <c r="E232" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A232&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E232:E234" si="73">"&lt;item&gt;"&amp;SUBSTITUTE(A232, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Активно двигает ручками и ножками, смеется, когда с ним ласково разговаривают (комплекс оживления).&lt;/item&gt;</v>
       </c>
       <c r="F232" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D232,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Actively moves arms and legs, laughs when being kindly spoken to.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5983,11 +5985,11 @@
         <v>238</v>
       </c>
       <c r="E233" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A233&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="73"/>
         <v>&lt;item&gt;Узнает знакомых взрослых.&lt;/item&gt;</v>
       </c>
       <c r="F233" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F233:F234" si="74">"&lt;item&gt;"&amp;SUBSTITUTE(D233,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Recognizes adults they already know.&lt;/item&gt;</v>
       </c>
     </row>
@@ -5999,11 +6001,11 @@
         <v>357</v>
       </c>
       <c r="E234" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A234&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="73"/>
         <v>&lt;item&gt;Следит взглядом за движущимися людьми.&lt;/item&gt;</v>
       </c>
       <c r="F234" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="74"/>
         <v>&lt;item&gt;Watches moving people.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6013,10 +6015,10 @@
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
       <c r="E235" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6028,7 +6030,7 @@
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E236" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D236&amp;"__"&amp;B236&amp;"__"&amp;C236&amp;"""&gt;"</f>
@@ -6047,11 +6049,11 @@
         <v>358</v>
       </c>
       <c r="E237" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A237&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E237:E241" si="75">"&lt;item&gt;"&amp;SUBSTITUTE(A237, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Рассматривает себя в зеркале.&lt;/item&gt;</v>
       </c>
       <c r="F237" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D237,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Examines themselves in the mirror.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6063,11 +6065,11 @@
         <v>359</v>
       </c>
       <c r="E238" s="3" t="str">
-        <f>"&lt;item&gt;"&amp;A238&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="75"/>
         <v>&lt;item&gt;Услышав свое имя, поворачивается.&lt;/item&gt;</v>
       </c>
       <c r="F238" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F238:F241" si="76">"&lt;item&gt;"&amp;SUBSTITUTE(D238,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Turns around when they hear their name.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6079,11 +6081,11 @@
         <v>360</v>
       </c>
       <c r="E239" s="3" t="str">
-        <f t="shared" ref="E239:E317" si="5">"&lt;item&gt;"&amp;A239&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="75"/>
         <v>&lt;item&gt;Плачет, когда остается в одиночестве.&lt;/item&gt;</v>
       </c>
       <c r="F239" s="3" t="str">
-        <f t="shared" ref="F239:F317" si="6">"&lt;item&gt;"&amp;D239&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="76"/>
         <v>&lt;item&gt;Cries when left alone.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6095,17 +6097,17 @@
         <v>361</v>
       </c>
       <c r="E240" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="75"/>
         <v>&lt;item&gt;Громко смеется, когда взрослый забавляет его.&lt;/item&gt;</v>
       </c>
       <c r="F240" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="76"/>
         <v>&lt;item&gt;Laughs out loudly when amused by an adult.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -6113,11 +6115,11 @@
         <v>362</v>
       </c>
       <c r="E241" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="75"/>
         <v>&lt;item&gt;Радуется, когда с ним играют.&lt;/item&gt;</v>
       </c>
       <c r="F241" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="76"/>
         <v>&lt;item&gt;Is happy when being played with.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6127,10 +6129,10 @@
       <c r="C242" s="7"/>
       <c r="D242" s="6"/>
       <c r="E242" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6142,7 +6144,7 @@
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E243" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D243&amp;"__"&amp;B243&amp;"__"&amp;C243&amp;"""&gt;"</f>
@@ -6161,11 +6163,11 @@
         <v>363</v>
       </c>
       <c r="E244" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E244:E247" si="77">"&lt;item&gt;"&amp;SUBSTITUTE(A244, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Узнает знакомых взрослых и протягивает к ним ручки.&lt;/item&gt;</v>
       </c>
       <c r="F244" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D244,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Recognizes adults they know and reaches out for them.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6177,17 +6179,17 @@
         <v>364</v>
       </c>
       <c r="E245" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="77"/>
         <v>&lt;item&gt;Смеется, когда родители строят рожицы.&lt;/item&gt;</v>
       </c>
       <c r="F245" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F245:F247" si="78">"&lt;item&gt;"&amp;SUBSTITUTE(D245,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Laughs when parents make faces.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -6195,11 +6197,11 @@
         <v>365</v>
       </c>
       <c r="E246" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="77"/>
         <v>&lt;item&gt;Перестает плакать, когда с ним разговаривают.&lt;/item&gt;</v>
       </c>
       <c r="F246" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="78"/>
         <v>&lt;item&gt;Stops crying when spoken to.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6211,11 +6213,11 @@
         <v>366</v>
       </c>
       <c r="E247" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="77"/>
         <v>&lt;item&gt;Поворачивается в сторону говорящего.&lt;/item&gt;</v>
       </c>
       <c r="F247" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="78"/>
         <v>&lt;item&gt;Turns to the speaker.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6225,10 +6227,10 @@
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6240,7 +6242,7 @@
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E249" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D249&amp;"__"&amp;B249&amp;"__"&amp;C249&amp;"""&gt;"</f>
@@ -6259,11 +6261,11 @@
         <v>367</v>
       </c>
       <c r="E250" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E250:E252" si="79">"&lt;item&gt;"&amp;SUBSTITUTE(A250, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Незнакомцы вызывают настороженность.&lt;/item&gt;</v>
       </c>
       <c r="F250" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D250,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Is alerted by strangers.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6275,11 +6277,11 @@
         <v>368</v>
       </c>
       <c r="E251" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="79"/>
         <v>&lt;item&gt;Плачет, когда забирают игрушку.&lt;/item&gt;</v>
       </c>
       <c r="F251" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F251:F252" si="80">"&lt;item&gt;"&amp;SUBSTITUTE(D251,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Cries when their toys are takes away.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6291,11 +6293,11 @@
         <v>369</v>
       </c>
       <c r="E252" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="79"/>
         <v>&lt;item&gt;Протягивает руки, чтобы его взяли на руки.&lt;/item&gt;</v>
       </c>
       <c r="F252" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="80"/>
         <v>&lt;item&gt;Reaches out when they want to be picked up.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6305,10 +6307,10 @@
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6320,7 +6322,7 @@
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E254" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D254&amp;"__"&amp;B254&amp;"__"&amp;C254&amp;"""&gt;"</f>
@@ -6339,17 +6341,17 @@
         <v>370</v>
       </c>
       <c r="E255" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E255:E257" si="81">"&lt;item&gt;"&amp;SUBSTITUTE(A255, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Показывает родителям любовь, прижимаясь к ним.&lt;/item&gt;</v>
       </c>
       <c r="F255" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D255,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Shows their parents their love by clinging to them.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -6357,11 +6359,11 @@
         <v>371</v>
       </c>
       <c r="E256" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="81"/>
         <v>&lt;item&gt;Различает ласковую и строгую интонации и выражения лица.&lt;/item&gt;</v>
       </c>
       <c r="F256" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F256:F257" si="82">"&lt;item&gt;"&amp;SUBSTITUTE(D256,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can tell the difference between kind and angry tone and facial expressions.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6373,11 +6375,11 @@
         <v>372</v>
       </c>
       <c r="E257" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;Играет "в прятки" с платком.&lt;/item&gt;</v>
+        <f t="shared" si="81"/>
+        <v>&lt;item&gt;Играет \"в прятки\" с платком.&lt;/item&gt;</v>
       </c>
       <c r="F257" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="82"/>
         <v>&lt;item&gt;Plays hide-and-seek with a handkerchief.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6387,10 +6389,10 @@
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -6402,7 +6404,7 @@
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E259" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D259&amp;"__"&amp;B259&amp;"__"&amp;C259&amp;"""&gt;"</f>
@@ -6421,11 +6423,11 @@
         <v>373</v>
       </c>
       <c r="E260" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E260:E261" si="83">"&lt;item&gt;"&amp;SUBSTITUTE(A260, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Плачет, когда мама или папа уходят.&lt;/item&gt;</v>
       </c>
       <c r="F260" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D260,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Cries when mother or father leave.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6437,11 +6439,11 @@
         <v>374</v>
       </c>
       <c r="E261" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="83"/>
         <v>&lt;item&gt;Наблюдает за взрослыми.&lt;/item&gt;</v>
       </c>
       <c r="F261" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D261,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Watches adults.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6451,10 +6453,10 @@
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
       <c r="E262" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6466,7 +6468,7 @@
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E263" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D263&amp;"__"&amp;B263&amp;"__"&amp;C263&amp;"""&gt;"</f>
@@ -6479,7 +6481,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -6487,11 +6489,11 @@
         <v>375</v>
       </c>
       <c r="E264" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E264:E266" si="84">"&lt;item&gt;"&amp;SUBSTITUTE(A264, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Плачет или сердится, если его ругают.&lt;/item&gt;</v>
       </c>
       <c r="F264" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D264,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Cries or gets angry when being told off.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6503,11 +6505,11 @@
         <v>376</v>
       </c>
       <c r="E265" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="84"/>
         <v>&lt;item&gt;Появляются первые предпочтения.&lt;/item&gt;</v>
       </c>
       <c r="F265" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F265:F266" si="85">"&lt;item&gt;"&amp;SUBSTITUTE(D265,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Gets their first preferences.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6519,11 +6521,11 @@
         <v>377</v>
       </c>
       <c r="E266" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="84"/>
         <v>&lt;item&gt;Смеется, увидев близкого взрослого.&lt;/item&gt;</v>
       </c>
       <c r="F266" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="85"/>
         <v>&lt;item&gt;Laughs when they see someone close to them.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6533,10 +6535,10 @@
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
       <c r="E267" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -6548,7 +6550,7 @@
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E268" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D268&amp;"__"&amp;B268&amp;"__"&amp;C268&amp;"""&gt;"</f>
@@ -6567,11 +6569,11 @@
         <v>378</v>
       </c>
       <c r="E269" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E269:E271" si="86">"&lt;item&gt;"&amp;SUBSTITUTE(A269, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Понимает, когда взрослый прощается с ним.&lt;/item&gt;</v>
       </c>
       <c r="F269" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D269,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Understand being said goodbye to.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6583,11 +6585,11 @@
         <v>379</v>
       </c>
       <c r="E270" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="86"/>
         <v>&lt;item&gt;Обнимает маму.&lt;/item&gt;</v>
       </c>
       <c r="F270" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F270:F271" si="87">"&lt;item&gt;"&amp;SUBSTITUTE(D270,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Hugs their mother.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6599,11 +6601,11 @@
         <v>380</v>
       </c>
       <c r="E271" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="86"/>
         <v>&lt;item&gt;Начинает понимать, когда его хвалят.&lt;/item&gt;</v>
       </c>
       <c r="F271" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="87"/>
         <v>&lt;item&gt;Starts to understand being praised.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6613,10 +6615,10 @@
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
       <c r="E272" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -6628,7 +6630,7 @@
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E273" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D273&amp;"__"&amp;B273&amp;"__"&amp;C273&amp;"""&gt;"</f>
@@ -6644,14 +6646,14 @@
         <v>147</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E274" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E274:E275" si="88">"&lt;item&gt;"&amp;SUBSTITUTE(A274, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Подражает действиям родителей (пока-пока, но-но-но).&lt;/item&gt;</v>
       </c>
       <c r="F274" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D274,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Imitates their parents’ actions (bye-bye, no-no).&lt;/item&gt;</v>
       </c>
     </row>
@@ -6663,11 +6665,11 @@
         <v>381</v>
       </c>
       <c r="E275" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="88"/>
         <v>&lt;item&gt;Прерывает действие, за которое его поругали.&lt;/item&gt;</v>
       </c>
       <c r="F275" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D275,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Stops doing what they have been told off for.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6677,10 +6679,10 @@
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
       <c r="E276" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F276" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6692,7 +6694,7 @@
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E277" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D277&amp;"__"&amp;B277&amp;"__"&amp;C277&amp;"""&gt;"</f>
@@ -6711,11 +6713,11 @@
         <v>382</v>
       </c>
       <c r="E278" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E278:E280" si="89">"&lt;item&gt;"&amp;SUBSTITUTE(A278, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Повторяет действия и движения, вызывающие смех мамы.&lt;/item&gt;</v>
       </c>
       <c r="F278" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D278,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Keeps doing things that make their mother laugh.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6727,11 +6729,11 @@
         <v>383</v>
       </c>
       <c r="E279" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="89"/>
         <v>&lt;item&gt;Целует родителей.&lt;/item&gt;</v>
       </c>
       <c r="F279" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F279:F280" si="90">"&lt;item&gt;"&amp;SUBSTITUTE(D279,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Kisses their parents.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6743,11 +6745,11 @@
         <v>384</v>
       </c>
       <c r="E280" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="89"/>
         <v>&lt;item&gt;С удовольствием изучает себя в зеркале, улыбается своему отражению, играет с ним.&lt;/item&gt;</v>
       </c>
       <c r="F280" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="90"/>
         <v>&lt;item&gt;Likes watching themselves in the mirror, smiles at their reflection, plays with it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6757,10 +6759,10 @@
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
       <c r="E281" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F281" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -6774,7 +6776,7 @@
         <v>18</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E282" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D282&amp;"__"&amp;B282&amp;"__"&amp;C282&amp;"""&gt;"</f>
@@ -6793,11 +6795,11 @@
         <v>385</v>
       </c>
       <c r="E283" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E283:E285" si="91">"&lt;item&gt;"&amp;SUBSTITUTE(A283, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Просит содействия в чем-либо.&lt;/item&gt;</v>
       </c>
       <c r="F283" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D283,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Asks for help.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6809,11 +6811,11 @@
         <v>386</v>
       </c>
       <c r="E284" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="91"/>
         <v>&lt;item&gt;Начинает помогать в домашних делах.&lt;/item&gt;</v>
       </c>
       <c r="F284" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F284:F285" si="92">"&lt;item&gt;"&amp;SUBSTITUTE(D284,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Starts helping around the house.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6825,11 +6827,11 @@
         <v>387</v>
       </c>
       <c r="E285" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="91"/>
         <v>&lt;item&gt;Играет вместе с другими детьми.&lt;/item&gt;</v>
       </c>
       <c r="F285" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="92"/>
         <v>&lt;item&gt;Plays with other children.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6839,10 +6841,10 @@
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
       <c r="E286" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F286" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6856,7 +6858,7 @@
         <v>24</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E287" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D287&amp;"__"&amp;B287&amp;"__"&amp;C287&amp;"""&gt;"</f>
@@ -6875,11 +6877,11 @@
         <v>388</v>
       </c>
       <c r="E288" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E288:E292" si="93">"&lt;item&gt;"&amp;SUBSTITUTE(A288, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Иногда говорит нет, если пристают.&lt;/item&gt;</v>
       </c>
       <c r="F288" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D288,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Sometimes says no when being pestered.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6891,11 +6893,11 @@
         <v>389</v>
       </c>
       <c r="E289" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="93"/>
         <v>&lt;item&gt;Обычно правильно реагирует на замечания.&lt;/item&gt;</v>
       </c>
       <c r="F289" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F289:F292" si="94">"&lt;item&gt;"&amp;SUBSTITUTE(D289,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Usually behaves correctly when reproved.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6907,11 +6909,11 @@
         <v>390</v>
       </c>
       <c r="E290" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="93"/>
         <v>&lt;item&gt;Проявляет привязанность к другим детям.&lt;/item&gt;</v>
       </c>
       <c r="F290" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="94"/>
         <v>&lt;item&gt;Shows affection towards other children.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6923,11 +6925,11 @@
         <v>391</v>
       </c>
       <c r="E291" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="93"/>
         <v>&lt;item&gt;Укладывает спать рядом с собой любимую игрушку.&lt;/item&gt;</v>
       </c>
       <c r="F291" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="94"/>
         <v>&lt;item&gt;Puts their favorite toy to sleep with them.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6939,11 +6941,11 @@
         <v>392</v>
       </c>
       <c r="E292" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="93"/>
         <v>&lt;item&gt;Сочувствует другим детям, старается помочь и утешить.&lt;/item&gt;</v>
       </c>
       <c r="F292" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="94"/>
         <v>&lt;item&gt;Feels empathy towards other children, tries to help and comfort them.&lt;/item&gt;</v>
       </c>
     </row>
@@ -6953,10 +6955,10 @@
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
       <c r="E293" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F293" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -6970,7 +6972,7 @@
         <v>30</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E294" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D294&amp;"__"&amp;B294&amp;"__"&amp;C294&amp;"""&gt;"</f>
@@ -6989,11 +6991,11 @@
         <v>393</v>
       </c>
       <c r="E295" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E295:E299" si="95">"&lt;item&gt;"&amp;SUBSTITUTE(A295, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Выражает жалобы словами.&lt;/item&gt;</v>
       </c>
       <c r="F295" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D295,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Expresses their complaints in words.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7005,28 +7007,28 @@
         <v>394</v>
       </c>
       <c r="E296" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="95"/>
         <v>&lt;item&gt;Здоровается.&lt;/item&gt;</v>
       </c>
       <c r="F296" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F296:F299" si="96">"&lt;item&gt;"&amp;SUBSTITUTE(D296,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Says hi.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>395</v>
       </c>
       <c r="E297" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;Говорит: "Посмотри", желая привлечь внимание.&lt;/item&gt;</v>
+        <f t="shared" si="95"/>
+        <v>&lt;item&gt;Говорит: \"Посмотри\", желая привлечь внимание.&lt;/item&gt;</v>
       </c>
       <c r="F297" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;Says "look" when they want to draw your attention.&lt;/item&gt;</v>
+        <f t="shared" si="96"/>
+        <v>&lt;item&gt;Says \"look\" when they want to draw your attention.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -7037,11 +7039,11 @@
         <v>396</v>
       </c>
       <c r="E298" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="95"/>
         <v>&lt;item&gt;Играет в активные игры с другими детьми.&lt;/item&gt;</v>
       </c>
       <c r="F298" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="96"/>
         <v>&lt;item&gt;Plays active games with other children.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7053,11 +7055,11 @@
         <v>397</v>
       </c>
       <c r="E299" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="95"/>
         <v>&lt;item&gt;Предлагает свою помощь другим.&lt;/item&gt;</v>
       </c>
       <c r="F299" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="96"/>
         <v>&lt;item&gt;Offers help.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7067,10 +7069,10 @@
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
       <c r="E300" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -7084,7 +7086,7 @@
         <v>36</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E301" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D301&amp;"__"&amp;B301&amp;"__"&amp;C301&amp;"""&gt;"</f>
@@ -7097,7 +7099,7 @@
     </row>
     <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -7105,11 +7107,11 @@
         <v>398</v>
       </c>
       <c r="E302" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E302:E303" si="97">"&lt;item&gt;"&amp;SUBSTITUTE(A302, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Извиняется, сделав что-нибудь нехорошее.&lt;/item&gt;</v>
       </c>
       <c r="F302" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D302,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Apologizes when they do something bad.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7121,17 +7123,17 @@
         <v>399</v>
       </c>
       <c r="E303" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="97"/>
         <v>&lt;item&gt;Обычно выполняет указания во время игры с другими малышами и ждет своей очереди.&lt;/item&gt;</v>
       </c>
       <c r="F303" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D303,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Usually follows instructions when playing with other children and waits for their turn.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -7139,10 +7141,10 @@
         <v>230</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F304" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -7154,7 +7156,7 @@
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E305" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D305&amp;"__"&amp;B305&amp;"__"&amp;C305&amp;"""&gt;"</f>
@@ -7167,7 +7169,7 @@
     </row>
     <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -7175,11 +7177,11 @@
         <v>400</v>
       </c>
       <c r="E306" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E306:E307" si="98">"&lt;item&gt;"&amp;SUBSTITUTE(A306, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Криком и плачем сообщает о неприятных ощущениях.&lt;/item&gt;</v>
       </c>
       <c r="F306" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D306,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Vocalizes feeling discomfort by crying.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7188,15 +7190,15 @@
         <v>165</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>401</v>
+        <v>573</v>
       </c>
       <c r="E307" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;К концу месяца издает звуки типа "ах", "эх", "ух".&lt;/item&gt;</v>
+        <f t="shared" si="98"/>
+        <v>&lt;item&gt;К концу месяца издает звуки типа \"ах\", \"эх\", \"ух\".&lt;/item&gt;</v>
       </c>
       <c r="F307" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;Makes sounds like "ah, eh, ooh" by the end of the first month.&lt;/item&gt;</v>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D307,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Makes sounds like \"ah\", \"eh\", \"ooh\" by the end of the first month.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -7205,10 +7207,10 @@
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
       <c r="E308" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F308" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -7216,11 +7218,11 @@
         <v>166</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E309" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D309&amp;"__"&amp;B309&amp;"__"&amp;C309&amp;"""&gt;"</f>
@@ -7236,14 +7238,14 @@
         <v>167</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E310" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E310" si="99">"&lt;item&gt;"&amp;SUBSTITUTE(A310, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Гулит.&lt;/item&gt;</v>
       </c>
       <c r="F310" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D310,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Babbles.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7253,10 +7255,10 @@
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
       <c r="E311" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -7268,7 +7270,7 @@
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E312" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D312&amp;"__"&amp;B312&amp;"__"&amp;C312&amp;"""&gt;"</f>
@@ -7284,14 +7286,14 @@
         <v>168</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E313" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E313:E314" si="100">"&lt;item&gt;"&amp;SUBSTITUTE(A313, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Усиливает спонтанное звукообразование.&lt;/item&gt;</v>
       </c>
       <c r="F313" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D313,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Makes more spontaneous sounds.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7300,15 +7302,15 @@
         <v>169</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E314" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;"Воркует", когда с ним разговаривают.&lt;/item&gt;</v>
+        <f t="shared" si="100"/>
+        <v>&lt;item&gt;\"Воркует\", когда с ним разговаривают.&lt;/item&gt;</v>
       </c>
       <c r="F314" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;"Cooes" when being spoken to.&lt;/item&gt;</v>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D314,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;\"Cooes\" when being spoken to.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -7317,10 +7319,10 @@
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
       <c r="E315" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F315" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -7332,7 +7334,7 @@
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E316" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D316&amp;"__"&amp;B316&amp;"__"&amp;C316&amp;"""&gt;"</f>
@@ -7348,14 +7350,14 @@
         <v>170</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E317" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E317:E318" si="101">"&lt;item&gt;"&amp;SUBSTITUTE(A317, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Может издавать три различных звука.&lt;/item&gt;</v>
       </c>
       <c r="F317" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D317,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can make three different sounds.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7364,14 +7366,14 @@
         <v>171</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E318" s="3" t="str">
-        <f t="shared" ref="E318:E394" si="7">"&lt;item&gt;"&amp;A318&amp;"&lt;/item&gt;"</f>
+        <f t="shared" si="101"/>
         <v>&lt;item&gt;Появляются различные типы крика, отражающие голод, боль, усталость.&lt;/item&gt;</v>
       </c>
       <c r="F318" s="3" t="str">
-        <f t="shared" ref="F318:F394" si="8">"&lt;item&gt;"&amp;D318&amp;"&lt;/item&gt;"</f>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D318,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Gives out different types of cries, like showing hunger, pain or being tired.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7381,10 +7383,10 @@
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
       <c r="E319" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F319" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -7396,7 +7398,7 @@
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E320" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D320&amp;"__"&amp;B320&amp;"__"&amp;C320&amp;"""&gt;"</f>
@@ -7412,50 +7414,50 @@
         <v>172</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E321" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E321:E323" si="102">"&lt;item&gt;"&amp;SUBSTITUTE(A321, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Воркует и пищит, пытаясь привлечь внимание.&lt;/item&gt;</v>
       </c>
       <c r="F321" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D321,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Cooes and squeaks trying to draw attention.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E322" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="102"/>
         <v>&lt;item&gt;Радуется, когда издает звуки.&lt;/item&gt;</v>
       </c>
       <c r="F322" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F322:F323" si="103">"&lt;item&gt;"&amp;SUBSTITUTE(D322,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Is happy when they make sounds.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E323" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="102"/>
         <v>&lt;item&gt;Громко смеется, когда к нему обращаются.&lt;/item&gt;</v>
       </c>
       <c r="F323" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="103"/>
         <v>&lt;item&gt;Laughs loudly when being spoken to.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7465,10 +7467,10 @@
       <c r="C324" s="7"/>
       <c r="D324" s="6"/>
       <c r="E324" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F324" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -7480,7 +7482,7 @@
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E325" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D325&amp;"__"&amp;B325&amp;"__"&amp;C325&amp;"""&gt;"</f>
@@ -7496,14 +7498,14 @@
         <v>173</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E326" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E326" si="104">"&lt;item&gt;"&amp;SUBSTITUTE(A326, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Болтает сам с собой, четко разделяя слоги.&lt;/item&gt;</v>
       </c>
       <c r="F326" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D326,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Talks to themselves clearly separating syllables.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7513,10 +7515,10 @@
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
       <c r="E327" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -7528,7 +7530,7 @@
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E328" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D328&amp;"__"&amp;B328&amp;"__"&amp;C328&amp;"""&gt;"</f>
@@ -7541,19 +7543,19 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E329" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E329" si="105">"&lt;item&gt;"&amp;SUBSTITUTE(A329, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Воркует, лепечет, издаёт радостные крики.&lt;/item&gt;</v>
       </c>
       <c r="F329" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D329,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Cooes, babbles, makes happy sounds.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7563,10 +7565,10 @@
       <c r="C330" s="7"/>
       <c r="D330" s="6"/>
       <c r="E330" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F330" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -7578,7 +7580,7 @@
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E331" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D331&amp;"__"&amp;B331&amp;"__"&amp;C331&amp;"""&gt;"</f>
@@ -7594,32 +7596,32 @@
         <v>174</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E332" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Лепечет слоги "ла", "ва", "ма", "ба", "на".&lt;/item&gt;</v>
+        <f t="shared" ref="E332:E333" si="106">"&lt;item&gt;"&amp;SUBSTITUTE(A332, """","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Лепечет слоги \"ла\", \"ва\", \"ма\", \"ба\", \"на\".&lt;/item&gt;</v>
       </c>
       <c r="F332" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Babbles syllables like "la", "wa", "ma", "ba", "na".&lt;/item&gt;</v>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D332,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Babbles syllables like \"la\", \"wa\", \"ma\", \"ba\", \"na\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E333" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="106"/>
         <v>&lt;item&gt;Стремится привлечь внимания определёнными звуками.&lt;/item&gt;</v>
       </c>
       <c r="F333" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D333,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Tries to draw attention with particular sounds.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7629,10 +7631,10 @@
       <c r="C334" s="7"/>
       <c r="D334" s="6"/>
       <c r="E334" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F334" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -7644,7 +7646,7 @@
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E335" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D335&amp;"__"&amp;B335&amp;"__"&amp;C335&amp;"""&gt;"</f>
@@ -7660,15 +7662,15 @@
         <v>175</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E336" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Повторяет слоги "ма-ма", "па-па", "та-та".&lt;/item&gt;</v>
+        <f t="shared" ref="E336:E337" si="107">"&lt;item&gt;"&amp;SUBSTITUTE(A336, """","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Повторяет слоги \"ма-ма\", \"па-па\", \"та-та\".&lt;/item&gt;</v>
       </c>
       <c r="F336" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Repeats syllables "ma-ma", "pa-pa", "ta-ta".&lt;/item&gt;</v>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D336,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Repeats syllables \"ma-ma\", \"pa-pa\", \"ta-ta\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -7676,14 +7678,14 @@
         <v>176</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E337" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="107"/>
         <v>&lt;item&gt;Подражает различным звукам.&lt;/item&gt;</v>
       </c>
       <c r="F337" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D337,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Imitates various sounds.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7693,10 +7695,10 @@
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
       <c r="E338" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F338" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -7708,7 +7710,7 @@
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E339" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D339&amp;"__"&amp;B339&amp;"__"&amp;C339&amp;"""&gt;"</f>
@@ -7724,14 +7726,14 @@
         <v>177</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E340" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E340" si="108">"&lt;item&gt;"&amp;SUBSTITUTE(A340, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Невнятно произносит до восьми различных слогов.&lt;/item&gt;</v>
       </c>
       <c r="F340" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D340,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can pronounce up to eight different syllables (unintelligibly).&lt;/item&gt;</v>
       </c>
     </row>
@@ -7741,10 +7743,10 @@
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
       <c r="E341" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F341" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -7756,7 +7758,7 @@
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E342" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D342&amp;"__"&amp;B342&amp;"__"&amp;C342&amp;"""&gt;"</f>
@@ -7769,38 +7771,38 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E343" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E343:E346" si="109">"&lt;item&gt;"&amp;SUBSTITUTE(A343, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Лепет становится разнообразнее.&lt;/item&gt;</v>
       </c>
       <c r="F343" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D343,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Babbling gets more varied.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E344" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Говорит "мама" и "папа".&lt;/item&gt;</v>
+        <f t="shared" si="109"/>
+        <v>&lt;item&gt;Говорит \"мама\" и \"папа\".&lt;/item&gt;</v>
       </c>
       <c r="F344" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Can say "mama" and "papa".&lt;/item&gt;</v>
+        <f t="shared" ref="F344:F346" si="110">"&lt;item&gt;"&amp;SUBSTITUTE(D344,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Can say \"mama\" and \"papa\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -7808,31 +7810,31 @@
         <v>178</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E345" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="109"/>
         <v>&lt;item&gt;Повторяет звуки за взрослым.&lt;/item&gt;</v>
       </c>
       <c r="F345" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="110"/>
         <v>&lt;item&gt;Repeats sounds after adults.&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>179</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E346" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Реагирует на свое имя и на просьбу "дай мне".&lt;/item&gt;</v>
+        <f t="shared" si="109"/>
+        <v>&lt;item&gt;Реагирует на свое имя и на просьбу \"дай мне\".&lt;/item&gt;</v>
       </c>
       <c r="F346" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Reacts to their name and "give me".&lt;/item&gt;</v>
+        <f t="shared" si="110"/>
+        <v>&lt;item&gt;Reacts to their name and \"give me\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -7841,10 +7843,10 @@
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
       <c r="E347" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F347" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -7856,7 +7858,7 @@
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E348" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D348&amp;"__"&amp;B348&amp;"__"&amp;C348&amp;"""&gt;"</f>
@@ -7872,14 +7874,14 @@
         <v>180</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E349" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E349:E350" si="111">"&lt;item&gt;"&amp;SUBSTITUTE(A349, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Произносит первое осмысленное слово.&lt;/item&gt;</v>
       </c>
       <c r="F349" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D349,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Says the first meaningful word.&lt;/item&gt;</v>
       </c>
     </row>
@@ -7888,15 +7890,15 @@
         <v>181</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E350" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="111"/>
         <v>&lt;item&gt;Понимает запрет.&lt;/item&gt;</v>
       </c>
       <c r="F350" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Understands the notion of "you can’t do that".&lt;/item&gt;</v>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D350,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Understands the notion of \"you can’t do that\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -7905,10 +7907,10 @@
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
       <c r="E351" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F351" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -7920,7 +7922,7 @@
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E352" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D352&amp;"__"&amp;B352&amp;"__"&amp;C352&amp;"""&gt;"</f>
@@ -7936,15 +7938,15 @@
         <v>182</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E353" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Говорит два осмысленных слова на "детском языке".&lt;/item&gt;</v>
+        <f t="shared" ref="E353:E354" si="112">"&lt;item&gt;"&amp;SUBSTITUTE(A353, """","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Говорит два осмысленных слова на \"детском языке\".&lt;/item&gt;</v>
       </c>
       <c r="F353" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Says two meaningful words (in the "child speak").&lt;/item&gt;</v>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D353,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Says two meaningful words (in the \"child speak\").&lt;/item&gt;</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7952,15 +7954,15 @@
         <v>183</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E354" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;На просьбу "принеси мне игрушку" ищет, находит и приносит.&lt;/item&gt;</v>
+        <f t="shared" si="112"/>
+        <v>&lt;item&gt;На просьбу \"принеси мне игрушку\" ищет, находит и приносит.&lt;/item&gt;</v>
       </c>
       <c r="F354" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;When being told "bring me a toy" goes to look for it, find it and brings it.&lt;/item&gt;</v>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D354,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;When being told \"bring me a toy\" goes to look for it, find it and brings it.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -7969,10 +7971,10 @@
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
       <c r="E355" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F355" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -7986,7 +7988,7 @@
         <v>18</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E356" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D356&amp;"__"&amp;B356&amp;"__"&amp;C356&amp;"""&gt;"</f>
@@ -8002,48 +8004,48 @@
         <v>184</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E357" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Говорит на менее двух слов, помимо "мама" и "папа".&lt;/item&gt;</v>
+        <f t="shared" ref="E357:E363" si="113">"&lt;item&gt;"&amp;SUBSTITUTE(A357, """","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Говорит на менее двух слов, помимо \"мама\" и \"папа\".&lt;/item&gt;</v>
       </c>
       <c r="F357" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Can say at least two words apart from "mama" and "papa".&lt;/item&gt;</v>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D357,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Can say at least two words apart from \"mama\" and \"papa\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E358" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Отвечает на вопрос: "Как говорит собачка, киска?"&lt;/item&gt;</v>
+        <f t="shared" si="113"/>
+        <v>&lt;item&gt;Отвечает на вопрос: \"Как говорит собачка, киска?\"&lt;/item&gt;</v>
       </c>
       <c r="F358" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Can answer "what does the kitty/doggy say?"&lt;/item&gt;</v>
+        <f t="shared" ref="F358:F363" si="114">"&lt;item&gt;"&amp;SUBSTITUTE(D358,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Can answer \"what does the kitty/doggy say?\"&lt;/item&gt;</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E359" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="113"/>
         <v>&lt;item&gt;Употребляет, по крайней мере, пять слов для обозначения различных предметов.&lt;/item&gt;</v>
       </c>
       <c r="F359" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="114"/>
         <v>&lt;item&gt;Uses at least five words for different objects.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8052,14 +8054,14 @@
         <v>185</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E360" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="113"/>
         <v>&lt;item&gt;По просьбе взрослых показывает нос, рот, руки или ноги.&lt;/item&gt;</v>
       </c>
       <c r="F360" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="114"/>
         <v>&lt;item&gt;Can show a mouth, a nose, arms and legs when asked to.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8068,51 +8070,51 @@
         <v>186</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E361" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Знает предлог "на" и "с".&lt;/item&gt;</v>
+        <f t="shared" si="113"/>
+        <v>&lt;item&gt;Знает предлог \"на\" и \"с\".&lt;/item&gt;</v>
       </c>
       <c r="F361" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Knows prepositions "on" and "with".&lt;/item&gt;</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="114"/>
+        <v>&lt;item&gt;Knows prepositions \"on\" and \"with\".&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E362" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Выполняет указания, состоящие из двух частей, например: "Пойди к себе в комнату и принеси мне…"&lt;/item&gt;</v>
+        <f t="shared" si="113"/>
+        <v>&lt;item&gt;Выполняет указания, состоящие из двух частей, например: \"Пойди к себе в комнату и принеси мне…\"&lt;/item&gt;</v>
       </c>
       <c r="F362" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Understands two-stage instructions like "go to your room and bring me…"&lt;/item&gt;</v>
+        <f t="shared" si="114"/>
+        <v>&lt;item&gt;Understands two-stage instructions like \"go to your room and bring me…\"&lt;/item&gt;</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E363" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Понимает значение, по крайней мере, трех из предлогов, указывающих положение предметов: "в", "на", "под", "у", "возле".&lt;/item&gt;</v>
+        <f t="shared" si="113"/>
+        <v>&lt;item&gt;Понимает значение, по крайней мере, трех из предлогов, указывающих положение предметов: \"в\", \"на\", \"под\", \"у\", \"возле\".&lt;/item&gt;</v>
       </c>
       <c r="F363" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Understands at least three prepositions of place, like "in", "on", "under", "at", "next to".&lt;/item&gt;</v>
+        <f t="shared" si="114"/>
+        <v>&lt;item&gt;Understands at least three prepositions of place, like \"in\", \"on\", \"under\", \"at\", \"next to\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -8121,10 +8123,10 @@
       <c r="C364" s="7"/>
       <c r="D364" s="6"/>
       <c r="E364" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F364" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -8138,7 +8140,7 @@
         <v>24</v>
       </c>
       <c r="D365" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E365" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D365&amp;"__"&amp;B365&amp;"__"&amp;C365&amp;"""&gt;"</f>
@@ -8154,69 +8156,69 @@
         <v>187</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E366" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E366:E371" si="115">"&lt;item&gt;"&amp;SUBSTITUTE(A366, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Называет несколько знакомых предметов в книжке с картинками.&lt;/item&gt;</v>
       </c>
       <c r="F366" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D366,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Knows several familiar objects in a picture book.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E367" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="115"/>
         <v>&lt;item&gt;Употребляет не менее десяти слов.&lt;/item&gt;</v>
       </c>
       <c r="F367" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F367:F371" si="116">"&lt;item&gt;"&amp;SUBSTITUTE(D367,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Uses no less than ten words.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E368" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Правильно отвечает "да" или "нет" в ответ на простые вопросы.&lt;/item&gt;</v>
+        <f t="shared" si="115"/>
+        <v>&lt;item&gt;Правильно отвечает \"да\" или \"нет\" в ответ на простые вопросы.&lt;/item&gt;</v>
       </c>
       <c r="F368" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Answers "yes" or "no" correctly when asked simple questions.&lt;/item&gt;</v>
+        <f t="shared" si="116"/>
+        <v>&lt;item&gt;Answers \"yes\" or \"no\" correctly when asked simple questions.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E369" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Если предмет не нравится, говорит о нем: "Плохой", "Кака" и т.п.&lt;/item&gt;</v>
+        <f t="shared" si="115"/>
+        <v>&lt;item&gt;Если предмет не нравится, говорит о нем: \"Плохой\", \"Кака\" и т.п.&lt;/item&gt;</v>
       </c>
       <c r="F369" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Says "bad" or "donwanna" if they don’t like an object.&lt;/item&gt;</v>
+        <f t="shared" si="116"/>
+        <v>&lt;item&gt;Says \"bad\" or \"donwanna\" if they don’t like an object.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8224,15 +8226,15 @@
         <v>188</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E370" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Понимает значение слов "вверх" и "вниз", "один" (дает по просьбе именно один предмет), "все".&lt;/item&gt;</v>
+        <f t="shared" si="115"/>
+        <v>&lt;item&gt;Понимает значение слов \"вверх\" и \"вниз\", \"один\" (дает по просьбе именно один предмет), \"все\".&lt;/item&gt;</v>
       </c>
       <c r="F370" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Understands "up" and "down", "one" (gives only one item when asked to), "all".&lt;/item&gt;</v>
+        <f t="shared" si="116"/>
+        <v>&lt;item&gt;Understands \"up\" and \"down\", \"one\" (gives only one item when asked to), \"all\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -8240,14 +8242,14 @@
         <v>189</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E371" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="115"/>
         <v>&lt;item&gt;Определяет один цвет по названию.&lt;/item&gt;</v>
       </c>
       <c r="F371" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="116"/>
         <v>&lt;item&gt;Can show one color when you name it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8257,10 +8259,10 @@
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
       <c r="E372" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F372" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -8274,7 +8276,7 @@
         <v>30</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E373" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D373&amp;"__"&amp;B373&amp;"__"&amp;C373&amp;"""&gt;"</f>
@@ -8290,15 +8292,15 @@
         <v>190</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E374" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Просит : "Еще", "Еще один".&lt;/item&gt;</v>
+        <f t="shared" ref="E374:E384" si="117">"&lt;item&gt;"&amp;SUBSTITUTE(A374, """","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Просит : \"Еще\", \"Еще один\".&lt;/item&gt;</v>
       </c>
       <c r="F374" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Asks "more", "one more".&lt;/item&gt;</v>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D374,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Asks \"more\", \"one more\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -8306,33 +8308,33 @@
         <v>191</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E375" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Говорит "не надо", "не буду" и т.д.&lt;/item&gt;</v>
+        <f t="shared" si="117"/>
+        <v>&lt;item&gt;Говорит \"не надо\", \"не буду\" и т.д.&lt;/item&gt;</v>
       </c>
       <c r="F375" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Says "don’t", "donwanna" etc.&lt;/item&gt;</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F375:F384" si="118">"&lt;item&gt;"&amp;SUBSTITUTE(D375,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Says \"don’t\", \"donwanna\" etc.&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E376" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Употребляет, по крайней мере, одно из следующих слов: "я", "ты", "он", "она", "оно", "мне", "меня". &lt;/item&gt;</v>
+        <f t="shared" si="117"/>
+        <v>&lt;item&gt;Употребляет, по крайней мере, одно из следующих слов: \"я\", \"ты\", \"он\", \"она\", \"оно\", \"мне\", \"меня\". &lt;/item&gt;</v>
       </c>
       <c r="F376" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Uses at least one of the following: "I", "you", "he", "she", "it", "me".&lt;/item&gt;</v>
+        <f t="shared" si="118"/>
+        <v>&lt;item&gt;Uses at least one of the following: \"I\", \"you\", \"he\", \"she\", \"it\", \"me\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8340,14 +8342,14 @@
         <v>192</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E377" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="117"/>
         <v>&lt;item&gt;Говорит предложениями из двух, трех и более слов.&lt;/item&gt;</v>
       </c>
       <c r="F377" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="118"/>
         <v>&lt;item&gt;Can speak in two, three-word sentences or more.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8356,49 +8358,49 @@
         <v>193</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E378" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="117"/>
         <v>&lt;item&gt;Описывает действие, изображенное на картинке.&lt;/item&gt;</v>
       </c>
       <c r="F378" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="118"/>
         <v>&lt;item&gt;Can describe what is going on in a picture.&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E379" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Говорит о своих вещах: "мой", "моя", "моё".&lt;/item&gt;</v>
+        <f t="shared" si="117"/>
+        <v>&lt;item&gt;Говорит о своих вещах: \"мой\", \"моя\", \"моё\".&lt;/item&gt;</v>
       </c>
       <c r="F379" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Says "my" or "mine" about their things.&lt;/item&gt;</v>
+        <f t="shared" si="118"/>
+        <v>&lt;item&gt;Says \"my\" or \"mine\" about their things.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E380" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Употребляет глаголы в прошедшем времени, например: "Машинка упала".&lt;/item&gt;</v>
+        <f t="shared" si="117"/>
+        <v>&lt;item&gt;Употребляет глаголы в прошедшем времени, например: \"Машинка упала\".&lt;/item&gt;</v>
       </c>
       <c r="F380" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Uses past tense like "The car fell down".&lt;/item&gt;</v>
+        <f t="shared" si="118"/>
+        <v>&lt;item&gt;Uses past tense like \"The car fell down\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -8406,14 +8408,14 @@
         <v>194</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E381" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="117"/>
         <v>&lt;item&gt;Проговаривает свое имя.&lt;/item&gt;</v>
       </c>
       <c r="F381" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="118"/>
         <v>&lt;item&gt;Can say their name.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8422,48 +8424,48 @@
         <v>195</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E382" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="117"/>
         <v>&lt;item&gt;Показывает или называет больший из двух предметов.&lt;/item&gt;</v>
       </c>
       <c r="F382" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="118"/>
         <v>&lt;item&gt;Shows or names the bigger of two objects.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E383" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Понимает не менее 6 слов, указывающих положение предметов: "в", "над", "на", "под", "у", "возле", "сверху", "снизу", "выше", "ниже".&lt;/item&gt;</v>
+        <f t="shared" si="117"/>
+        <v>&lt;item&gt;Понимает не менее 6 слов, указывающих положение предметов: \"в\", \"над\", \"на\", \"под\", \"у\", \"возле\", \"сверху\", \"снизу\", \"выше\", \"ниже\".&lt;/item&gt;</v>
       </c>
       <c r="F383" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Understands no less than 6 words describing location, like "in", "over", "on", "under", "at", "next to", "above", "below", "higher", "lower".&lt;/item&gt;</v>
+        <f t="shared" si="118"/>
+        <v>&lt;item&gt;Understands no less than 6 words describing location, like \"in\", \"over\", \"on\", \"under\", \"at\", \"next to\", \"above\", \"below\", \"higher\", \"lower\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E384" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="117"/>
         <v>&lt;item&gt;Правильно определяет пол других детей (мальчик или девочка).&lt;/item&gt;</v>
       </c>
       <c r="F384" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="118"/>
         <v>&lt;item&gt;Can tell other children’s gender correctly (boy or girl).&lt;/item&gt;</v>
       </c>
     </row>
@@ -8473,10 +8475,10 @@
       <c r="C385" s="7"/>
       <c r="D385" s="6"/>
       <c r="E385" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F385" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -8490,7 +8492,7 @@
         <v>36</v>
       </c>
       <c r="D386" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E386" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D386&amp;"__"&amp;B386&amp;"__"&amp;C386&amp;"""&gt;"</f>
@@ -8506,15 +8508,15 @@
         <v>196</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E387" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Задает вопросы, начинающиеся со слов "что", "где", "почему", "когда", "как".&lt;/item&gt;</v>
+        <f t="shared" ref="E387:E394" si="119">"&lt;item&gt;"&amp;SUBSTITUTE(A387, """","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Задает вопросы, начинающиеся со слов \"что\", \"где\", \"почему\", \"когда\", \"как\".&lt;/item&gt;</v>
       </c>
       <c r="F387" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Asks questions starting with "what", "where", "why", "when", "how".&lt;/item&gt;</v>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D387,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Asks questions starting with \"what\", \"where\", \"why\", \"when\", \"how\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8522,14 +8524,14 @@
         <v>197</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E388" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="119"/>
         <v>&lt;item&gt;Использует существительные не только в именительном падеже.&lt;/item&gt;</v>
       </c>
       <c r="F388" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F388:F394" si="120">"&lt;item&gt;"&amp;SUBSTITUTE(D388,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Uses nouns in different cases (other than nominative).&lt;/item&gt;</v>
       </c>
     </row>
@@ -8538,14 +8540,14 @@
         <v>198</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E389" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="119"/>
         <v>&lt;item&gt;Употребляет слова во множественном числе (окончание -и или -ы), глаголы в будущем времени.&lt;/item&gt;</v>
       </c>
       <c r="F389" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="120"/>
         <v>&lt;item&gt;Uses plural and future tense.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8554,65 +8556,65 @@
         <v>199</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E390" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Использует слова "хороший" и "плохой".&lt;/item&gt;</v>
+        <f t="shared" si="119"/>
+        <v>&lt;item&gt;Использует слова \"хороший\" и \"плохой\".&lt;/item&gt;</v>
       </c>
       <c r="F390" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Uses words "good" and "bad".&lt;/item&gt;</v>
+        <f t="shared" si="120"/>
+        <v>&lt;item&gt;Uses words \"good\" and \"bad\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E391" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Отвечает на вопросы типа: "Что делают с печеньем?"&lt;/item&gt;</v>
+        <f t="shared" si="119"/>
+        <v>&lt;item&gt;Отвечает на вопросы типа: \"Что делают с печеньем?\"&lt;/item&gt;</v>
       </c>
       <c r="F391" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Can answer questions like "What are cookies for?"&lt;/item&gt;</v>
+        <f t="shared" si="120"/>
+        <v>&lt;item&gt;Can answer questions like \"What are cookies for?\"&lt;/item&gt;</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E392" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="119"/>
         <v>&lt;item&gt;Знает свой возраст.&lt;/item&gt;</v>
       </c>
       <c r="F392" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="120"/>
         <v>&lt;item&gt;Knows their age.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E393" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;item&gt;Правильно употребляет слова "быстро", "быстрый", "медленно", "медленный".&lt;/item&gt;</v>
+        <f t="shared" si="119"/>
+        <v>&lt;item&gt;Правильно употребляет слова \"быстро\", \"быстрый\", \"медленно\", \"медленный\".&lt;/item&gt;</v>
       </c>
       <c r="F393" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;item&gt;Uses words like "quick" and "quickly", "slow" and "slowly".&lt;/item&gt;</v>
+        <f t="shared" si="120"/>
+        <v>&lt;item&gt;Uses words like \"quick\" and \"quickly\", \"slow\" and \"slowly\".&lt;/item&gt;</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -8620,14 +8622,14 @@
         <v>200</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E394" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="119"/>
         <v>&lt;item&gt;Говорит о том, что должно произойти.&lt;/item&gt;</v>
       </c>
       <c r="F394" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="120"/>
         <v>&lt;item&gt;Talks about what is going to happen.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8641,10 +8643,10 @@
         <v>231</v>
       </c>
       <c r="E395" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F395" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -8656,7 +8658,7 @@
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E396" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D396&amp;"__"&amp;B396&amp;"__"&amp;C396&amp;"""&gt;"</f>
@@ -8672,14 +8674,14 @@
         <v>202</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E397" s="3" t="str">
-        <f t="shared" ref="E397:E451" si="9">"&lt;item&gt;"&amp;A397&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E397:E398" si="121">"&lt;item&gt;"&amp;SUBSTITUTE(A397, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Пьет с ложечки и открывает рот, увидев ее.&lt;/item&gt;</v>
       </c>
       <c r="F397" s="3" t="str">
-        <f t="shared" ref="F397:F451" si="10">"&lt;item&gt;"&amp;D397&amp;"&lt;/item&gt;"</f>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D397,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Drinks from a spoon and opens their mouth when they see it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8688,14 +8690,14 @@
         <v>203</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E398" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="121"/>
         <v>&lt;item&gt;Умеет есть с ложки.&lt;/item&gt;</v>
       </c>
       <c r="F398" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D398,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can eat from a spoon.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8705,10 +8707,10 @@
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
       <c r="E399" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F399" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -8722,7 +8724,7 @@
         <v>5</v>
       </c>
       <c r="D400" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E400" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D400&amp;"__"&amp;B400&amp;"__"&amp;C400&amp;"""&gt;"</f>
@@ -8738,14 +8740,14 @@
         <v>205</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E401" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E401" si="122">"&lt;item&gt;"&amp;SUBSTITUTE(A401, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Когда сосет из бутылочки, держит ее обеими руками.&lt;/item&gt;</v>
       </c>
       <c r="F401" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D401,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Holds a bottle with both hands when sucking on it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8755,10 +8757,10 @@
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
       <c r="E402" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F402" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -8770,7 +8772,7 @@
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E403" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D403&amp;"__"&amp;B403&amp;"__"&amp;C403&amp;"""&gt;"</f>
@@ -8786,14 +8788,14 @@
         <v>206</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E404" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E404" si="123">"&lt;item&gt;"&amp;SUBSTITUTE(A404, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Может снять шапку.&lt;/item&gt;</v>
       </c>
       <c r="F404" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D404,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can take off their hat.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8803,10 +8805,10 @@
       <c r="C405" s="6"/>
       <c r="D405" s="6"/>
       <c r="E405" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F405" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -8818,7 +8820,7 @@
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E406" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D406&amp;"__"&amp;B406&amp;"__"&amp;C406&amp;"""&gt;"</f>
@@ -8834,14 +8836,14 @@
         <v>207</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E407" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E407:E408" si="124">"&lt;item&gt;"&amp;SUBSTITUTE(A407, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Держит в руке и кусает печенье.&lt;/item&gt;</v>
       </c>
       <c r="F407" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D407,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Holds a cookie in their hand and bites on it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8850,14 +8852,14 @@
         <v>208</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E408" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="124"/>
         <v>&lt;item&gt;Сам подносит бутылку ко рту.&lt;/item&gt;</v>
       </c>
       <c r="F408" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D408,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can put the bottle to their mouth on their own.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8867,10 +8869,10 @@
       <c r="C409" s="6"/>
       <c r="D409" s="6"/>
       <c r="E409" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F409" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -8882,7 +8884,7 @@
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E410" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D410&amp;"__"&amp;B410&amp;"__"&amp;C410&amp;"""&gt;"</f>
@@ -8898,14 +8900,14 @@
         <v>209</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E411" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E411:E413" si="125">"&lt;item&gt;"&amp;SUBSTITUTE(A411, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Пьет из чашки.&lt;/item&gt;</v>
       </c>
       <c r="F411" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D411,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Drinks from a cup.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8914,14 +8916,14 @@
         <v>210</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E412" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="125"/>
         <v>&lt;item&gt;Самостоятельно ест небольшие кусочки пищи.&lt;/item&gt;</v>
       </c>
       <c r="F412" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F412:F413" si="126">"&lt;item&gt;"&amp;SUBSTITUTE(D412,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can eat small bits of food on their own.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8933,11 +8935,11 @@
         <v>325</v>
       </c>
       <c r="E413" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="125"/>
         <v>&lt;item&gt;Умеет стаскивать носок с ноги.&lt;/item&gt;</v>
       </c>
       <c r="F413" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="126"/>
         <v>&lt;item&gt;Can pull off a sock.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8947,10 +8949,10 @@
       <c r="C414" s="6"/>
       <c r="D414" s="6"/>
       <c r="E414" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F414" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -8962,7 +8964,7 @@
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E415" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D415&amp;"__"&amp;B415&amp;"__"&amp;C415&amp;"""&gt;"</f>
@@ -8981,11 +8983,11 @@
         <v>332</v>
       </c>
       <c r="E416" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E416:E417" si="127">"&lt;item&gt;"&amp;SUBSTITUTE(A416, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Ест пальчиками.&lt;/item&gt;</v>
       </c>
       <c r="F416" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D416,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Eats with their fingers.&lt;/item&gt;</v>
       </c>
     </row>
@@ -8994,14 +8996,14 @@
         <v>212</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E417" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="127"/>
         <v>&lt;item&gt;Помогает одеваться, просовывая руки в рукава.&lt;/item&gt;</v>
       </c>
       <c r="F417" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D417,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;When getting dressed, puts their arms into the sleeves on their own.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9011,10 +9013,10 @@
       <c r="C418" s="6"/>
       <c r="D418" s="6"/>
       <c r="E418" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F418" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -9026,7 +9028,7 @@
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E419" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D419&amp;"__"&amp;B419&amp;"__"&amp;C419&amp;"""&gt;"</f>
@@ -9045,11 +9047,11 @@
         <v>337</v>
       </c>
       <c r="E420" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E420:E421" si="128">"&lt;item&gt;"&amp;SUBSTITUTE(A420, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Поднимает чашку двумя руками.&lt;/item&gt;</v>
       </c>
       <c r="F420" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D420,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Picks up a cup with both hands.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9061,11 +9063,11 @@
         <v>336</v>
       </c>
       <c r="E421" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="128"/>
         <v>&lt;item&gt;Берет ложку за ручку.&lt;/item&gt;</v>
       </c>
       <c r="F421" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D421,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Grabs a spoon by its long part.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9075,10 +9077,10 @@
       <c r="C422" s="6"/>
       <c r="D422" s="6"/>
       <c r="E422" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F422" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -9090,7 +9092,7 @@
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E423" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D423&amp;"__"&amp;B423&amp;"__"&amp;C423&amp;"""&gt;"</f>
@@ -9106,14 +9108,14 @@
         <v>213</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E424" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E424:E425" si="129">"&lt;item&gt;"&amp;SUBSTITUTE(A424, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Пытается самостоятельно пить из чашки.&lt;/item&gt;</v>
       </c>
       <c r="F424" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D424,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Tries to drink from a cup on their own.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9122,14 +9124,14 @@
         <v>214</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E425" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="129"/>
         <v>&lt;item&gt;Самостоятельно ест сухарик.&lt;/item&gt;</v>
       </c>
       <c r="F425" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D425,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Eats a dry toast on their own.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9139,10 +9141,10 @@
       <c r="C426" s="6"/>
       <c r="D426" s="6"/>
       <c r="E426" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F426" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -9154,7 +9156,7 @@
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E427" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D427&amp;"__"&amp;B427&amp;"__"&amp;C427&amp;"""&gt;"</f>
@@ -9170,14 +9172,14 @@
         <v>215</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E428" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E428:E429" si="130">"&lt;item&gt;"&amp;SUBSTITUTE(A428, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Самостоятельно пьет из чашки.&lt;/item&gt;</v>
       </c>
       <c r="F428" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D428,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Drinks from a cup on their own.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9186,14 +9188,14 @@
         <v>216</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E429" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="130"/>
         <v>&lt;item&gt;Пробует самостоятельно есть ложкой.&lt;/item&gt;</v>
       </c>
       <c r="F429" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D429,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Tries to eat with a spoon on their own.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9203,10 +9205,10 @@
       <c r="C430" s="6"/>
       <c r="D430" s="6"/>
       <c r="E430" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F430" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -9220,7 +9222,7 @@
         <v>18</v>
       </c>
       <c r="D431" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E431" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D431&amp;"__"&amp;B431&amp;"__"&amp;C431&amp;"""&gt;"</f>
@@ -9236,14 +9238,14 @@
         <v>217</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E432" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E432:E436" si="131">"&lt;item&gt;"&amp;SUBSTITUTE(A432, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Снимает туфли и носки.&lt;/item&gt;</v>
       </c>
       <c r="F432" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D432,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Takes off shoes and socks.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9252,14 +9254,14 @@
         <v>218</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E433" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="131"/>
         <v>&lt;item&gt;Пользуется маленьким ведерком или емкостью для переноски вещей.&lt;/item&gt;</v>
       </c>
       <c r="F433" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F433:F436" si="132">"&lt;item&gt;"&amp;SUBSTITUTE(D433,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Uses a small bucket or other container to carry things.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9268,14 +9270,14 @@
         <v>219</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E434" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="131"/>
         <v>&lt;item&gt;Открывая дверь, поворачивает ручку и тянет.&lt;/item&gt;</v>
       </c>
       <c r="F434" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="132"/>
         <v>&lt;item&gt;Turns the handle and pulls the door when opening it.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9284,14 +9286,14 @@
         <v>220</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E435" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="131"/>
         <v>&lt;item&gt;Вытирает пролитую жидкость тряпкой или губкой.&lt;/item&gt;</v>
       </c>
       <c r="F435" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="132"/>
         <v>&lt;item&gt;Wipes spilled liquid with a cloth or a sponge.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9300,14 +9302,14 @@
         <v>221</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E436" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="131"/>
         <v>&lt;item&gt;Подает маме или папе пустую тарелку.&lt;/item&gt;</v>
       </c>
       <c r="F436" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="132"/>
         <v>&lt;item&gt;Gives an empty plate to the mother or the father.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9317,10 +9319,10 @@
       <c r="C437" s="6"/>
       <c r="D437" s="6"/>
       <c r="E437" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F437" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -9334,7 +9336,7 @@
         <v>24</v>
       </c>
       <c r="D438" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E438" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D438&amp;"__"&amp;B438&amp;"__"&amp;C438&amp;"""&gt;"</f>
@@ -9350,14 +9352,14 @@
         <v>222</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E439" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E439:E442" si="133">"&lt;item&gt;"&amp;SUBSTITUTE(A439, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Самостоятельно снимает расстегнутую рубашку.&lt;/item&gt;</v>
       </c>
       <c r="F439" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D439,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can take off an unbuttoned shirt on their own.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9366,50 +9368,50 @@
         <v>223</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E440" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="133"/>
         <v>&lt;item&gt;Расстёгивает молнии.&lt;/item&gt;</v>
       </c>
       <c r="F440" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F440:F442" si="134">"&lt;item&gt;"&amp;SUBSTITUTE(D440,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can unzip things.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E441" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="133"/>
         <v>&lt;item&gt;Моет и вытирает руки.&lt;/item&gt;</v>
       </c>
       <c r="F441" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="134"/>
         <v>&lt;item&gt;Washes and wipes their hands.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E442" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="133"/>
         <v>&lt;item&gt;Ест вилкой и ложкой, почти не разливая.&lt;/item&gt;</v>
       </c>
       <c r="F442" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="134"/>
         <v>&lt;item&gt;Eats with a spoon and a fork almost without spilling.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9419,10 +9421,10 @@
       <c r="C443" s="7"/>
       <c r="D443" s="6"/>
       <c r="E443" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F443" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -9436,7 +9438,7 @@
         <v>30</v>
       </c>
       <c r="D444" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E444" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D444&amp;"__"&amp;B444&amp;"__"&amp;C444&amp;"""&gt;"</f>
@@ -9455,11 +9457,11 @@
         <v>256</v>
       </c>
       <c r="E445" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E445:E446" si="135">"&lt;item&gt;"&amp;SUBSTITUTE(A445, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Сам умывает лицо и чистит зубы.&lt;/item&gt;</v>
       </c>
       <c r="F445" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D445,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can wash their face and brush their teeth on their own.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9471,11 +9473,11 @@
         <v>257</v>
       </c>
       <c r="E446" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="135"/>
         <v>&lt;item&gt;Наливает жидкость в чашку, не проливая.&lt;/item&gt;</v>
       </c>
       <c r="F446" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D446,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can pour a liquid into a cup without spilling.&lt;/item&gt;</v>
       </c>
     </row>
@@ -9485,10 +9487,10 @@
       <c r="C447" s="6"/>
       <c r="D447" s="6"/>
       <c r="E447" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F447" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -9502,7 +9504,7 @@
         <v>36</v>
       </c>
       <c r="D448" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E448" s="6" t="str">
         <f>"&lt;string-array name="""&amp;D448&amp;"__"&amp;B448&amp;"__"&amp;C448&amp;"""&gt;"</f>
@@ -9515,7 +9517,7 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -9523,17 +9525,17 @@
         <v>254</v>
       </c>
       <c r="E449" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E449:E451" si="136">"&lt;item&gt;"&amp;SUBSTITUTE(A449, """","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Надевает рубашку самостоятельно.&lt;/item&gt;</v>
       </c>
       <c r="F449" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>"&lt;item&gt;"&amp;SUBSTITUTE(D449,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can put on a shirt on their own.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -9541,29 +9543,29 @@
         <v>255</v>
       </c>
       <c r="E450" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="136"/>
         <v>&lt;item&gt;Моется в ванне почти без помощи.&lt;/item&gt;</v>
       </c>
       <c r="F450" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F450:F451" si="137">"&lt;item&gt;"&amp;SUBSTITUTE(D450,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Can bathe almost without assistance.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="451" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E451" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="136"/>
         <v>&lt;item&gt;Правильно надевает туфли (правую — на правую ногу, левую — на левую).&lt;/item&gt;</v>
       </c>
       <c r="F451" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="137"/>
         <v>&lt;item&gt;Puts on shoes correctly (left shoe — left foot, right shoe — right foot).&lt;/item&gt;</v>
       </c>
     </row>
@@ -9573,10 +9575,10 @@
       <c r="C452" s="6"/>
       <c r="D452" s="6"/>
       <c r="E452" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F452" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G452" s="8"/>
     </row>
